--- a/pcb/RGBClock/BOM-Farnell-Digikey.xlsx
+++ b/pcb/RGBClock/BOM-Farnell-Digikey.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Proto" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="129">
   <si>
     <t>Toch button</t>
   </si>
@@ -333,6 +333,78 @@
   </si>
   <si>
     <t>Ook op ledboard</t>
+  </si>
+  <si>
+    <t>U2,U3</t>
+  </si>
+  <si>
+    <t>R11,R12,R13</t>
+  </si>
+  <si>
+    <t>WM1784-ND</t>
+  </si>
+  <si>
+    <t>Molex 043025-0400  Stekker</t>
+  </si>
+  <si>
+    <t>WM1814-ND</t>
+  </si>
+  <si>
+    <t>PCB Header</t>
+  </si>
+  <si>
+    <t>WM1816-ND</t>
+  </si>
+  <si>
+    <t>Molex 43025-0800 Stekker</t>
+  </si>
+  <si>
+    <t>WM1786-ND</t>
+  </si>
+  <si>
+    <t>Tot Pins</t>
+  </si>
+  <si>
+    <t>Molex 43025-0200 Stekker</t>
+  </si>
+  <si>
+    <t>WM1783-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molex PCB Header 43045-0200 </t>
+  </si>
+  <si>
+    <t>WM1813-ND</t>
+  </si>
+  <si>
+    <t>NHD-16032AZ-FL-YBW-ND</t>
+  </si>
+  <si>
+    <t>LCD MOD GRAPH 160X32 Y/G TRANSFL</t>
+  </si>
+  <si>
+    <t>Molex Pins</t>
+  </si>
+  <si>
+    <t>Molex PCB Header 043045-0800</t>
+  </si>
+  <si>
+    <t>Molex 43025-0600 Stekker</t>
+  </si>
+  <si>
+    <t>WM1785-ND</t>
+  </si>
+  <si>
+    <t>Molex PCB Header 043045-0600</t>
+  </si>
+  <si>
+    <t>WM1815-ND</t>
+  </si>
+  <si>
+    <t>WM1837CT-ND</t>
+  </si>
+  <si>
+    <t>Alg Totaal</t>
   </si>
 </sst>
 </file>
@@ -1715,7 +1787,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1961,17 +2033,20 @@
         <v>8906068</v>
       </c>
       <c r="B13" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="D13" s="5">
         <v>2.31</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="1"/>
-        <v>9.24</v>
+        <v>13.86</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -2111,7 +2186,7 @@
         <v>1843876</v>
       </c>
       <c r="B21" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>83</v>
@@ -2121,13 +2196,16 @@
       </c>
       <c r="E21" s="5">
         <f t="shared" si="1"/>
-        <v>5.82</v>
+        <v>17.46</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>1657931</v>
       </c>
+      <c r="B22" s="5">
+        <v>8</v>
+      </c>
       <c r="C22" s="5" t="s">
         <v>84</v>
       </c>
@@ -2162,7 +2240,7 @@
         <v>9101241</v>
       </c>
       <c r="B24" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>87</v>
@@ -2172,7 +2250,7 @@
       </c>
       <c r="E24" s="5">
         <f t="shared" si="1"/>
-        <v>1.482</v>
+        <v>4.4459999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -2180,7 +2258,7 @@
         <v>1636136</v>
       </c>
       <c r="B25" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>34</v>
@@ -2190,7 +2268,7 @@
       </c>
       <c r="E25" s="5">
         <f t="shared" si="1"/>
-        <v>3.36</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -2292,7 +2370,7 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6">
         <f>SUM(E2:E30)</f>
-        <v>64.520999999999987</v>
+        <v>90.464999999999975</v>
       </c>
     </row>
   </sheetData>
@@ -2303,10 +2381,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2340,6 +2418,33 @@
         <v>38</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>1892887</v>
+      </c>
+      <c r="B2" s="5">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="E2" s="5">
+        <f>B2*D2</f>
+        <v>0.70499999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="5">
+        <f>SUM(E2:E17)</f>
+        <v>0.70499999999999996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2347,15 +2452,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="5"/>
     <col min="3" max="3" width="43" style="5" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="5"/>
@@ -2363,7 +2468,7 @@
     <col min="7" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>94</v>
       </c>
@@ -2382,8 +2487,14 @@
       <c r="F1" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>95</v>
       </c>
@@ -2404,7 +2515,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>97</v>
       </c>
@@ -2418,14 +2529,14 @@
         <v>0.39</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E8" si="0">B3*D3</f>
+        <f t="shared" ref="E3:E11" si="0">B3*D3</f>
         <v>0.78</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>101</v>
       </c>
@@ -2446,28 +2557,246 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E5" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E6" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="5">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.27</v>
+      </c>
       <c r="E7" s="5">
+        <f>B7*D7</f>
+        <v>1.08</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2</v>
+      </c>
+      <c r="H7" s="5">
+        <f>B7*G7</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="5">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" ref="E8" si="1">B8*D8</f>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="5">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="E10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E8" s="5">
+        <v>4.68</v>
+      </c>
+      <c r="G10" s="5">
+        <v>4</v>
+      </c>
+      <c r="H10" s="5">
+        <f>B10*G10</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="5">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E11" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.8800000000000008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="5">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.37</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" ref="E13:E17" si="2">B13*D13</f>
+        <v>1.48</v>
+      </c>
+      <c r="G13" s="5">
+        <v>6</v>
+      </c>
+      <c r="H13" s="5">
+        <f>B13*G13</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="2"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.43</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="2"/>
+        <v>0.43</v>
+      </c>
+      <c r="G16" s="5">
+        <v>8</v>
+      </c>
+      <c r="H16" s="5">
+        <f>B16*G16</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="5">
+        <v>100</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" s="5">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" ref="E20" si="3">B20*D20</f>
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="5">
+        <v>2</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="5">
+        <v>19.21</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" ref="E22" si="4">B22*D22</f>
+        <v>38.42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="5">
+        <f>SUM(E2:E31)</f>
+        <v>74.830000000000013</v>
+      </c>
+      <c r="H32" s="5">
+        <f>SUM(H7:H31)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" s="4">
+        <f>Mainboard!E44+Displayboard!E33+Leddriverboard!E18+Digikey!E32</f>
+        <v>283.34100000000001</v>
       </c>
     </row>
   </sheetData>

--- a/pcb/RGBClock/BOM-Farnell-Digikey.xlsx
+++ b/pcb/RGBClock/BOM-Farnell-Digikey.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Proto" sheetId="1" r:id="rId1"/>
     <sheet name="Mainboard" sheetId="2" r:id="rId2"/>
     <sheet name="Displayboard" sheetId="3" r:id="rId3"/>
     <sheet name="Leddriverboard" sheetId="4" r:id="rId4"/>
-    <sheet name="Digikey" sheetId="5" r:id="rId5"/>
+    <sheet name="iPrototype" sheetId="6" r:id="rId5"/>
+    <sheet name="Digikey" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="136">
   <si>
     <t>Toch button</t>
   </si>
@@ -405,13 +406,34 @@
   </si>
   <si>
     <t>Alg Totaal</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t>I2C Touch sensor controller - MPR121</t>
+  </si>
+  <si>
+    <t>Omschr</t>
+  </si>
+  <si>
+    <t>Aant</t>
+  </si>
+  <si>
+    <t>Tot</t>
+  </si>
+  <si>
+    <t>Flat cable connector 26p</t>
+  </si>
+  <si>
+    <t>Flat cable connector 16p</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,6 +470,15 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -470,7 +501,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -483,6 +514,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -983,17 +1015,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.140625" style="5" customWidth="1"/>
     <col min="2" max="2" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="5" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" style="5" customWidth="1"/>
     <col min="6" max="6" width="32" style="5" customWidth="1"/>
@@ -1764,14 +1796,19 @@
         <v>36.659999999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C43" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6">
         <f>SUM(E2:E42)</f>
         <v>117.34100000000001</v>
       </c>
@@ -1786,8 +1823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2359,6 +2396,14 @@
       <c r="E30" s="5">
         <f t="shared" si="1"/>
         <v>4.32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="5">
+        <v>2</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -2452,9 +2497,63 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="34.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>56549884</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="E2">
+        <f>D2*B2</f>
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -2795,7 +2894,7 @@
         <v>128</v>
       </c>
       <c r="E38" s="4">
-        <f>Mainboard!E44+Displayboard!E33+Leddriverboard!E18+Digikey!E32</f>
+        <f>Mainboard!E45+Displayboard!E33+Leddriverboard!E18+Digikey!E32</f>
         <v>283.34100000000001</v>
       </c>
     </row>

--- a/pcb/RGBClock/BOM-Farnell-Digikey.xlsx
+++ b/pcb/RGBClock/BOM-Farnell-Digikey.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Proto" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,74 @@
     <sheet name="Leddriverboard" sheetId="4" r:id="rId4"/>
     <sheet name="iPrototype" sheetId="6" r:id="rId5"/>
     <sheet name="Digikey" sheetId="5" r:id="rId6"/>
+    <sheet name="MB-Farnell-Basket" sheetId="7" r:id="rId7"/>
+    <sheet name="DB-Farnell-Basket" sheetId="8" r:id="rId8"/>
+    <sheet name="LD-Farnell-Basket" sheetId="9" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="basket_1" localSheetId="6">'MB-Farnell-Basket'!$A$1:$J$64</definedName>
+    <definedName name="basketdb" localSheetId="7">'DB-Farnell-Basket'!$A$1:$J$51</definedName>
+    <definedName name="basketld" localSheetId="8">'LD-Farnell-Basket'!$A$1:$J$5</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="basket" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Temp\basket.csv" decimal="," thousands="." comma="1">
+      <textFields count="10">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="basketdb" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Temp\basketdb.csv" decimal="," thousands="." comma="1">
+      <textFields count="10">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="basketld" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Temp\basketld.csv" decimal="," thousands="." comma="1">
+      <textFields count="10">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="385">
   <si>
     <t>Toch button</t>
   </si>
@@ -111,9 +172,6 @@
     <t>D1</t>
   </si>
   <si>
-    <t>C1,C7,C15,C11,C13</t>
-  </si>
-  <si>
     <t>C2</t>
   </si>
   <si>
@@ -132,15 +190,9 @@
     <t>U4</t>
   </si>
   <si>
-    <t>U7,U12</t>
-  </si>
-  <si>
     <t>Opmerkingen</t>
   </si>
   <si>
-    <t>C14,C18</t>
-  </si>
-  <si>
     <t>Ook nodig op displayboard</t>
   </si>
   <si>
@@ -150,75 +202,33 @@
     <t>C4</t>
   </si>
   <si>
-    <t>C6,C8</t>
-  </si>
-  <si>
-    <t>D5,D6,D7</t>
-  </si>
-  <si>
-    <t>Q1,Q2</t>
-  </si>
-  <si>
     <t>B1</t>
   </si>
   <si>
     <t>U5</t>
   </si>
   <si>
-    <t>D2,D3</t>
-  </si>
-  <si>
     <t>U3</t>
   </si>
   <si>
-    <t>R4,R5</t>
-  </si>
-  <si>
-    <t>R2,R3</t>
-  </si>
-  <si>
     <t>Ook nodig op display en led</t>
   </si>
   <si>
-    <t>R6,R7</t>
-  </si>
-  <si>
     <t>U2</t>
   </si>
   <si>
-    <t>R6,R9,R10,R11</t>
-  </si>
-  <si>
-    <t>U8,U9,U10,U11</t>
-  </si>
-  <si>
-    <t>C9,C10,C16,C17</t>
-  </si>
-  <si>
-    <t>C20,C19,C21</t>
-  </si>
-  <si>
     <t>U13</t>
   </si>
   <si>
     <t>IC1</t>
   </si>
   <si>
-    <t>X3,X4</t>
-  </si>
-  <si>
     <t>R13</t>
   </si>
   <si>
     <t>R12</t>
   </si>
   <si>
-    <t>U14,U15,U16,U17</t>
-  </si>
-  <si>
-    <t>K1,K2,K3,K4</t>
-  </si>
-  <si>
     <t>LED1</t>
   </si>
   <si>
@@ -231,9 +241,6 @@
     <t>CON1</t>
   </si>
   <si>
-    <t>Flux remover</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
@@ -243,18 +250,6 @@
     <t>R2</t>
   </si>
   <si>
-    <t>100n van mainboard</t>
-  </si>
-  <si>
-    <t>C5,C12,C14</t>
-  </si>
-  <si>
-    <t>C4,C15</t>
-  </si>
-  <si>
-    <t>C7,C8,C9,C10,C11,C16,C17,C18,C6</t>
-  </si>
-  <si>
     <t>Zie mainboard</t>
   </si>
   <si>
@@ -336,12 +331,6 @@
     <t>Ook op ledboard</t>
   </si>
   <si>
-    <t>U2,U3</t>
-  </si>
-  <si>
-    <t>R11,R12,R13</t>
-  </si>
-  <si>
     <t>WM1784-ND</t>
   </si>
   <si>
@@ -426,7 +415,826 @@
     <t>Flat cable connector 26p</t>
   </si>
   <si>
-    <t>Flat cable connector 16p</t>
+    <t>Magnifier</t>
+  </si>
+  <si>
+    <t>C1-C7-C15-C11-C13</t>
+  </si>
+  <si>
+    <t>U7-U12</t>
+  </si>
+  <si>
+    <t>C14-C18</t>
+  </si>
+  <si>
+    <t>C6-C8</t>
+  </si>
+  <si>
+    <t>K1-K2-K3-K4</t>
+  </si>
+  <si>
+    <t>D5-D6-D7</t>
+  </si>
+  <si>
+    <t>Q1-Q2</t>
+  </si>
+  <si>
+    <t>D2-D3</t>
+  </si>
+  <si>
+    <t>R4-R5</t>
+  </si>
+  <si>
+    <t>R2-R3</t>
+  </si>
+  <si>
+    <t>X3-X4</t>
+  </si>
+  <si>
+    <t>R6-R7</t>
+  </si>
+  <si>
+    <t>R6-R9-R10-R11</t>
+  </si>
+  <si>
+    <t>U8-U9-U10-U11</t>
+  </si>
+  <si>
+    <t>C9-C10-C16-C17</t>
+  </si>
+  <si>
+    <t>C20-C19-C21</t>
+  </si>
+  <si>
+    <t>U14-U15-U16-U17</t>
+  </si>
+  <si>
+    <t>C4-C15</t>
+  </si>
+  <si>
+    <t>C7-C8-C9-C10-C11-C16-C17-C18-C6</t>
+  </si>
+  <si>
+    <t>U2-U3</t>
+  </si>
+  <si>
+    <t>Speaker</t>
+  </si>
+  <si>
+    <t>Regelnummer</t>
+  </si>
+  <si>
+    <t>Farnell Ordercode</t>
+  </si>
+  <si>
+    <t>Hoeveelheid</t>
+  </si>
+  <si>
+    <t>Productomschrijving</t>
+  </si>
+  <si>
+    <t>Fabrikantnaam &amp; -nummer</t>
+  </si>
+  <si>
+    <t>RoHS</t>
+  </si>
+  <si>
+    <t>Catalogusprijs</t>
+  </si>
+  <si>
+    <t>Beschikbaarheid</t>
+  </si>
+  <si>
+    <t>Regelprijs</t>
+  </si>
+  <si>
+    <t>Regelaantekening</t>
+  </si>
+  <si>
+    <t>DIODE, STANDARD, 4A, 800V, DO-201AD-2</t>
+  </si>
+  <si>
+    <t>ON SEMICONDUCTOR - MUR480ERLG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YES </t>
+  </si>
+  <si>
+    <t>0.494</t>
+  </si>
+  <si>
+    <t>Op voorraad</t>
+  </si>
+  <si>
+    <t>CAPACITOR , 4.7UF, 25V, X5R, 10%, 0805</t>
+  </si>
+  <si>
+    <t>TDK - C2012X5R1E475K</t>
+  </si>
+  <si>
+    <t>0.1302</t>
+  </si>
+  <si>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>CAP, CERAMIC, 0.01UF, 50V, X7R, 0805</t>
+  </si>
+  <si>
+    <t>MULTICOMP - MC0805B103K500CT</t>
+  </si>
+  <si>
+    <t>0.0133</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>IC, V REG 0.8A ADJ, SMD, SOP8, 3878</t>
+  </si>
+  <si>
+    <t>TEXAS INSTRUMENTS - LP3878MR-ADJ</t>
+  </si>
+  <si>
+    <t>1.82</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>RESISTOR, 0603, 4K02 1% 50PPM</t>
+  </si>
+  <si>
+    <t>TE CONNECTIVITY / NEOHM - CPF0603F4K02C1</t>
+  </si>
+  <si>
+    <t>0.0408</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>RESISTOR, 0603, 1K0 1% 50PPM</t>
+  </si>
+  <si>
+    <t>TE CONNECTIVITY / NEOHM - CPF0603F1K0C1</t>
+  </si>
+  <si>
+    <t>0.057</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>CAPACITOR , 10UF, 6.3V, X5R, 20%, 0805</t>
+  </si>
+  <si>
+    <t>TDK - C2012X5R0J106M/1.25</t>
+  </si>
+  <si>
+    <t>0.056</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>MLCC, 0805, NP0, 50V, 680PF</t>
+  </si>
+  <si>
+    <t>MULTICOMP - MC0805N681J500CT</t>
+  </si>
+  <si>
+    <t>0.0228</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>MLCC, 0805, X7R, 16V, 470NF</t>
+  </si>
+  <si>
+    <t>MULTICOMP - MC0805B474K160CT</t>
+  </si>
+  <si>
+    <t>0.0332</t>
+  </si>
+  <si>
+    <t>C7-C8-C9-C10-C11-C16-C17-C18-C</t>
+  </si>
+  <si>
+    <t>V REG LDO 50MA +3.3V, SMD, 71533</t>
+  </si>
+  <si>
+    <t>TEXAS INSTRUMENTS - TPS71533DCKR</t>
+  </si>
+  <si>
+    <t>1.05</t>
+  </si>
+  <si>
+    <t>BUS BUFFER DUAL, SMD, 82B96, SOIC8</t>
+  </si>
+  <si>
+    <t>NXP - P82B96TD,112</t>
+  </si>
+  <si>
+    <t>2.36</t>
+  </si>
+  <si>
+    <t>TVS DIODE, 10V, 600W, SLIMSMA</t>
+  </si>
+  <si>
+    <t>VISHAY GENERAL SEMICONDUCTOR - SMA6F10A-M3/6A</t>
+  </si>
+  <si>
+    <t>0.1226</t>
+  </si>
+  <si>
+    <t>RESISTOR, METAL , 3K3, 0.25W, 1%</t>
+  </si>
+  <si>
+    <t>TE CONNECTIVITY - LR0204F3K3</t>
+  </si>
+  <si>
+    <t>0.0323</t>
+  </si>
+  <si>
+    <t>IC, LED DRIVER, RGBA, 28-TSSOP</t>
+  </si>
+  <si>
+    <t>NXP - PCA9685PW</t>
+  </si>
+  <si>
+    <t>2.97</t>
+  </si>
+  <si>
+    <t>5.95</t>
+  </si>
+  <si>
+    <t>DIODE ARRAY, TVS, BI 3V, 3PF, SOD-323</t>
+  </si>
+  <si>
+    <t>BOURNS - CDSOD323-T03C</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>CONNECTOR, RCA, JACK, 3.5MM, 3WAY</t>
+  </si>
+  <si>
+    <t>LUMBERG - 1503 09</t>
+  </si>
+  <si>
+    <t>2.68</t>
+  </si>
+  <si>
+    <t>16BIT EXPANDER, I/O, I2C I'F, SMD</t>
+  </si>
+  <si>
+    <t>MICROCHIP - MCP23017-E/SO</t>
+  </si>
+  <si>
+    <t>1.45</t>
+  </si>
+  <si>
+    <t>AMP, POWER, AUDIO CLASS AB, HTSSOP24</t>
+  </si>
+  <si>
+    <t>TEXAS INSTRUMENTS - TPA0172PWPG4</t>
+  </si>
+  <si>
+    <t>4.05</t>
+  </si>
+  <si>
+    <t>8.09</t>
+  </si>
+  <si>
+    <t>IC, LED DRIVER, BUCK, 1A, TSOT23</t>
+  </si>
+  <si>
+    <t>DIODES INC. - ZXLD1362ET5TA</t>
+  </si>
+  <si>
+    <t>2.96</t>
+  </si>
+  <si>
+    <t>17.78</t>
+  </si>
+  <si>
+    <t>CAP, CERAMIC, 2.2UF, 25V, X7R, 0805</t>
+  </si>
+  <si>
+    <t>AVX - 08053C225KAT2A</t>
+  </si>
+  <si>
+    <t>RESISTOR, 0603, R820, 1%, 0.2W</t>
+  </si>
+  <si>
+    <t>PANASONIC - ERJ3BQFR82V</t>
+  </si>
+  <si>
+    <t>0.0665</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>DIODE, SCHOTTKY, 3A, 100V, SMC</t>
+  </si>
+  <si>
+    <t>VISHAY FORMERLY I.R. - VS-30BQ100TRPBF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y-EX </t>
+  </si>
+  <si>
+    <t>4.56</t>
+  </si>
+  <si>
+    <t>CHOKE, SMD, 68UH</t>
+  </si>
+  <si>
+    <t>WURTH ELEKTRONIK - 74456168</t>
+  </si>
+  <si>
+    <t>1.72</t>
+  </si>
+  <si>
+    <t>10.32</t>
+  </si>
+  <si>
+    <t>74HCT SINGLE GATE, SMD, 74HCT1G14</t>
+  </si>
+  <si>
+    <t>NXP - 74HCT1G14GW</t>
+  </si>
+  <si>
+    <t>0.2033</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>74HCT SINGLE GATE, SMD, 74HCT1G86</t>
+  </si>
+  <si>
+    <t>NXP - 74HCT1G86GW</t>
+  </si>
+  <si>
+    <t>CAP, CERAMIC, 0.022UF, 50V, X7R, 0805</t>
+  </si>
+  <si>
+    <t>MULTICOMP - MC0805B223K500CT</t>
+  </si>
+  <si>
+    <t>0.0171</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>RESISTOR, 1K0, 0.25W 0.5% 50PPM</t>
+  </si>
+  <si>
+    <t>MULTICOMP - MCMF0W4DF1001A50</t>
+  </si>
+  <si>
+    <t>0.0456</t>
+  </si>
+  <si>
+    <t>SENSOR, LIGHT-DIGITAL CONVERTER, I2C</t>
+  </si>
+  <si>
+    <t>TAOS - TSL2561T</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>4.41</t>
+  </si>
+  <si>
+    <t>SOCKET, IDC, WITH S/RELIEF, 16WAY</t>
+  </si>
+  <si>
+    <t>FCI - 71600-016LF</t>
+  </si>
+  <si>
+    <t>1.04</t>
+  </si>
+  <si>
+    <t>2.09</t>
+  </si>
+  <si>
+    <t>RESISTOR, 3K48, 0.25W 0.5% 50PPM</t>
+  </si>
+  <si>
+    <t>MULTICOMP - MCMF0W4DF3481A50</t>
+  </si>
+  <si>
+    <t>0.0636</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>CAP, CERAMIC, 0.1UF, 50V, X7R, 0805</t>
+  </si>
+  <si>
+    <t>MULTICOMP - MC0805B104K500CT</t>
+  </si>
+  <si>
+    <t>0.0124</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>CAPACITOR, 1206, 4.7UF, 16V</t>
+  </si>
+  <si>
+    <t>KEMET - C1206C475K4PACTU</t>
+  </si>
+  <si>
+    <t>0.1387</t>
+  </si>
+  <si>
+    <t>1.39</t>
+  </si>
+  <si>
+    <t>DIODE, SCHOTTKY, 1A, 30V, SMA</t>
+  </si>
+  <si>
+    <t>DIODES INC. - B130-13-F</t>
+  </si>
+  <si>
+    <t>0.361</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>CAPACITOR, 0805, X7R, 50V, 10NF</t>
+  </si>
+  <si>
+    <t>MURATA - GRM216R71H103KA01D</t>
+  </si>
+  <si>
+    <t>0.0399</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>INDUCTOR, 68UH, 20%, 1.5A, SMD</t>
+  </si>
+  <si>
+    <t>BOURNS - SRR1240-680M</t>
+  </si>
+  <si>
+    <t>0.798</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>CAPACITOR, TANTALUM, 10V, 68UF</t>
+  </si>
+  <si>
+    <t>VISHAY SPRAGUE - 594D686X9010C2T</t>
+  </si>
+  <si>
+    <t>3.37</t>
+  </si>
+  <si>
+    <t>SWITCHING REG 1A 5.0V, SMD, 2675</t>
+  </si>
+  <si>
+    <t>TEXAS INSTRUMENTS - LM2675M-5.0</t>
+  </si>
+  <si>
+    <t>3.97</t>
+  </si>
+  <si>
+    <t>CAP MLCC, 0.022UF, 100V, X7R, 10%, 0805</t>
+  </si>
+  <si>
+    <t>AVX - 08051C223KAT2A</t>
+  </si>
+  <si>
+    <t>0.0864</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>CAP, CERAMIC, 1000PF, 50V, X7R, 0402</t>
+  </si>
+  <si>
+    <t>MULTICOMP - MC0402B102K500CT</t>
+  </si>
+  <si>
+    <t>0.0066</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>MLCC, 0402, NP0, 50V, 22PF</t>
+  </si>
+  <si>
+    <t>MULTICOMP - MC0402N220J500CT</t>
+  </si>
+  <si>
+    <t>CRYSTAL, TUNING FORK, 32.768KHZ</t>
+  </si>
+  <si>
+    <t>RALTRON - R26-32.768- 12.5</t>
+  </si>
+  <si>
+    <t>0.1843</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>HOLDER, BATTERY, THT, CR2032</t>
+  </si>
+  <si>
+    <t>RENATA - HU2032-LF</t>
+  </si>
+  <si>
+    <t>1.15</t>
+  </si>
+  <si>
+    <t>RTC, 56B NVRAM, I2C, 1338, SOIC8</t>
+  </si>
+  <si>
+    <t>MAXIM INTEGRATED PRODUCTS - DS1338Z-33+</t>
+  </si>
+  <si>
+    <t>RESISTOR, METAL , 680R, 0.25W, 1%</t>
+  </si>
+  <si>
+    <t>TE CONNECTIVITY - LR0204F680R</t>
+  </si>
+  <si>
+    <t>RESISTOR, 100R, 0.25W 0.5% 50PPM</t>
+  </si>
+  <si>
+    <t>MULTICOMP - MCMF0W4DF1000A50</t>
+  </si>
+  <si>
+    <t>IC, TRANSLATOR</t>
+  </si>
+  <si>
+    <t>TEXAS INSTRUMENTS - TXS0102DCUR</t>
+  </si>
+  <si>
+    <t>0.9215</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>METAL FILM RESISTOR</t>
+  </si>
+  <si>
+    <t>MULTICOMP - MCMF0W4FF4702A50</t>
+  </si>
+  <si>
+    <t>IC, SWITCH, SPST-NC, SOT353</t>
+  </si>
+  <si>
+    <t>NXP - NX3L1G384GW</t>
+  </si>
+  <si>
+    <t>0.646</t>
+  </si>
+  <si>
+    <t>2.58</t>
+  </si>
+  <si>
+    <t>CAPACITOR, CERAMIC MULTILAYER</t>
+  </si>
+  <si>
+    <t>AVX - 0805YD225KAT2A</t>
+  </si>
+  <si>
+    <t>0.665</t>
+  </si>
+  <si>
+    <t>2.66</t>
+  </si>
+  <si>
+    <t>CAPACITOR, 1UF, 25V, X5R</t>
+  </si>
+  <si>
+    <t>KEMET - C0805C105K3PACTU</t>
+  </si>
+  <si>
+    <t>0.1168</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>LINE DRIVER, STER, ADJ, 14TSSOP</t>
+  </si>
+  <si>
+    <t>TEXAS INSTRUMENTS - DRV612PW</t>
+  </si>
+  <si>
+    <t>1.42</t>
+  </si>
+  <si>
+    <t>TRIMMER, POT, 100K, 1TURN, SMD</t>
+  </si>
+  <si>
+    <t>VISHAY SFERNICE - TS53YL104MR10</t>
+  </si>
+  <si>
+    <t>1.57</t>
+  </si>
+  <si>
+    <t>MOSFET, N CH, 60V, 0.115A, SOT23</t>
+  </si>
+  <si>
+    <t>DIODES INC. - 2N7002-7-F</t>
+  </si>
+  <si>
+    <t>0.0893</t>
+  </si>
+  <si>
+    <t>RELAY, SMD, DPDT, 1A, 9VDC</t>
+  </si>
+  <si>
+    <t>OMRON ELECTRONIC COMPONENTS - G6K-2F 9DC</t>
+  </si>
+  <si>
+    <t>6.03</t>
+  </si>
+  <si>
+    <t>24.13</t>
+  </si>
+  <si>
+    <t>LED, 5MM, GREEN</t>
+  </si>
+  <si>
+    <t>VISHAY SEMICONDUCTOR - TLLG5400</t>
+  </si>
+  <si>
+    <t>0.1311</t>
+  </si>
+  <si>
+    <t>USB TYPE A, RECEPTACLE, THT/RA</t>
+  </si>
+  <si>
+    <t>LUMBERG - 2410 02</t>
+  </si>
+  <si>
+    <t>0.6555</t>
+  </si>
+  <si>
+    <t>HEADER, STRAIGHT, 26WAY</t>
+  </si>
+  <si>
+    <t>AVX INTERCONNECT - 008380026000010</t>
+  </si>
+  <si>
+    <t>2.98</t>
+  </si>
+  <si>
+    <t>TWEEZER, 7, PLASTIC, 115MM</t>
+  </si>
+  <si>
+    <t>LERLOY - 132-0048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA </t>
+  </si>
+  <si>
+    <t>5.02</t>
+  </si>
+  <si>
+    <t>PSU, OPEN FRAME 40W 9V</t>
+  </si>
+  <si>
+    <t>XP POWER - ECM40US09</t>
+  </si>
+  <si>
+    <t>36.66</t>
+  </si>
+  <si>
+    <t>SOCKET, IDC, WITH S/RELIEF, 26WAY</t>
+  </si>
+  <si>
+    <t>FCI - 71600-026LF</t>
+  </si>
+  <si>
+    <t>1.43</t>
+  </si>
+  <si>
+    <t>2.87</t>
+  </si>
+  <si>
+    <t>MAGNIFIER, ILLUMINATED, HEAD BAND</t>
+  </si>
+  <si>
+    <t>LINEAR TOOLS - 59-650-747</t>
+  </si>
+  <si>
+    <t>17.27</t>
+  </si>
+  <si>
+    <t>Subtotaal:</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>2.28</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>5.36</t>
+  </si>
+  <si>
+    <t>RESISTOR, CARBON , 4K7, 0.25W, 5%</t>
+  </si>
+  <si>
+    <t>TE CONNECTIVITY - CFR16J4K7</t>
+  </si>
+  <si>
+    <t>0.019</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>132.3</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>14.14</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>1.52</t>
+  </si>
+  <si>
+    <t>2.91</t>
+  </si>
+  <si>
+    <t>6.08</t>
+  </si>
+  <si>
+    <t>SPEAKER, 2.5, FULL RANGE</t>
+  </si>
+  <si>
+    <t>VISATON - FRS 7 4OHM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TBA </t>
+  </si>
+  <si>
+    <t>10.91</t>
+  </si>
+  <si>
+    <t>21.81</t>
+  </si>
+  <si>
+    <t>122.32</t>
+  </si>
+  <si>
+    <t>R11-R12-R13</t>
+  </si>
+  <si>
+    <t>RESISTOR, 0603, R300, 1%, 0.2W</t>
+  </si>
+  <si>
+    <t>PANASONIC - ERJ3BQFR30V</t>
+  </si>
+  <si>
+    <t>0.1368</t>
+  </si>
+  <si>
+    <t>0.68</t>
   </si>
 </sst>
 </file>
@@ -528,6 +1336,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basket_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basketdb" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="basketld" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1015,10 +1835,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1049,7 +1869,7 @@
         <v>27</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -1078,7 +1898,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D3" s="5">
         <v>6.3E-2</v>
@@ -1096,7 +1916,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="D4" s="5">
         <v>1.2999999999999999E-2</v>
@@ -1114,13 +1934,13 @@
         <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="5">
         <v>0.13600000000000001</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" ref="E5:E42" si="1">B5*D5</f>
+        <f t="shared" ref="E5:E43" si="1">B5*D5</f>
         <v>1.36</v>
       </c>
     </row>
@@ -1132,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="5">
         <v>0.35199999999999998</v>
@@ -1150,7 +1970,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="5">
         <v>3.9E-2</v>
@@ -1168,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="5">
         <v>0.77900000000000003</v>
@@ -1180,20 +2000,20 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
-        <v>6517468</v>
+        <v>1754000</v>
       </c>
       <c r="B9" s="5">
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="5">
-        <v>2.19</v>
+        <v>3.37</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="1"/>
-        <v>2.19</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1204,7 +2024,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="5">
         <v>3.9</v>
@@ -1222,7 +2042,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="D11" s="5">
         <v>1.04</v>
@@ -1240,7 +2060,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="D12" s="5">
         <v>3.2000000000000001E-2</v>
@@ -1250,7 +2070,7 @@
         <v>0.32</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1261,7 +2081,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D13" s="5">
         <v>8.5000000000000006E-2</v>
@@ -1279,7 +2099,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D14" s="5">
         <v>7.0000000000000001E-3</v>
@@ -1297,7 +2117,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="D15" s="5">
         <v>7.0000000000000001E-3</v>
@@ -1315,7 +2135,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="D16" s="5">
         <v>0.74099999999999999</v>
@@ -1333,7 +2153,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="D17" s="5">
         <v>0.18099999999999999</v>
@@ -1351,7 +2171,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D18" s="5">
         <v>1.1299999999999999</v>
@@ -1369,7 +2189,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D19" s="5">
         <v>3.31</v>
@@ -1387,7 +2207,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="D20" s="5">
         <v>0.123</v>
@@ -1405,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D21" s="5">
         <v>2.31</v>
@@ -1423,7 +2243,7 @@
         <v>10</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="D22" s="5">
         <v>3.1E-2</v>
@@ -1441,7 +2261,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="D23" s="5">
         <v>3.1E-2</v>
@@ -1451,7 +2271,7 @@
         <v>0.31</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1462,7 +2282,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="D24" s="5">
         <v>2.62</v>
@@ -1474,20 +2294,20 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
-        <v>2329934</v>
+        <v>1563074</v>
       </c>
       <c r="B25" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="D25" s="5">
-        <v>3.1E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" si="1"/>
-        <v>0.31</v>
+        <v>0.22999999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1498,7 +2318,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D26" s="5">
         <v>0.90300000000000002</v>
@@ -1516,7 +2336,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="D27" s="5">
         <v>6.3E-2</v>
@@ -1534,7 +2354,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="D28" s="5">
         <v>0.63700000000000001</v>
@@ -1552,7 +2372,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="D29" s="5">
         <v>0.65600000000000003</v>
@@ -1570,7 +2390,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="D30" s="5">
         <v>0.115</v>
@@ -1588,7 +2408,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D31" s="5">
         <v>1.4</v>
@@ -1606,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D32" s="5">
         <v>1.45</v>
@@ -1618,20 +2438,20 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
-        <v>2329947</v>
+        <v>2329534</v>
       </c>
       <c r="B33" s="5">
         <v>10</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D33" s="5">
-        <v>3.1E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E33" s="5">
         <f t="shared" si="1"/>
-        <v>0.31</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1642,7 +2462,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D34" s="5">
         <v>1.54</v>
@@ -1660,7 +2480,7 @@
         <v>5</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="D35" s="5">
         <v>8.6999999999999994E-2</v>
@@ -1678,7 +2498,7 @@
         <v>4</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="D36" s="5">
         <v>6.03</v>
@@ -1696,7 +2516,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D37" s="5">
         <v>0.128</v>
@@ -1714,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D38" s="5">
         <v>0.64600000000000002</v>
@@ -1732,7 +2552,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D39" s="5">
         <v>2.93</v>
@@ -1744,73 +2564,86 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
-        <v>3821470</v>
+        <v>1518419</v>
       </c>
       <c r="B40" s="5">
         <v>1</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D40" s="5">
-        <v>7</v>
+        <v>4.92</v>
       </c>
       <c r="E40" s="5">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
-        <v>1518419</v>
+        <v>1550980</v>
       </c>
       <c r="B41" s="5">
         <v>1</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D41" s="5">
-        <v>4.92</v>
+        <v>36.659999999999997</v>
       </c>
       <c r="E41" s="5">
         <f t="shared" si="1"/>
-        <v>4.92</v>
+        <v>36.659999999999997</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
-        <v>1550980</v>
+        <v>1103922</v>
       </c>
       <c r="B42" s="5">
+        <v>2</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="5">
+        <v>1.43</v>
+      </c>
+      <c r="E42" s="5">
+        <f t="shared" si="1"/>
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
+        <v>2102054</v>
+      </c>
+      <c r="B43" s="5">
         <v>1</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D42" s="5">
-        <v>36.659999999999997</v>
-      </c>
-      <c r="E42" s="5">
-        <f t="shared" si="1"/>
-        <v>36.659999999999997</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C43" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="5">
+        <v>17.27</v>
+      </c>
+      <c r="E43" s="5">
+        <f t="shared" si="1"/>
+        <v>17.27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6">
-        <f>SUM(E2:E42)</f>
-        <v>117.34100000000001</v>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6">
+        <f>SUM(E2:E43)</f>
+        <v>131.45099999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1821,17 +2654,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="5" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="5" bestFit="1" customWidth="1"/>
@@ -1855,7 +2688,7 @@
         <v>27</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1884,7 +2717,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D3" s="5">
         <v>0.13400000000000001</v>
@@ -1894,7 +2727,7 @@
         <v>0.80400000000000005</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1905,13 +2738,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="5">
         <v>1.4E-2</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" ref="E4:E30" si="1">B4*D4</f>
+        <f t="shared" ref="E4:E31" si="1">B4*D4</f>
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -1923,7 +2756,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D5" s="5">
         <v>1.88</v>
@@ -1933,7 +2766,7 @@
         <v>7.52</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1944,7 +2777,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="D6" s="5">
         <v>4.2000000000000003E-2</v>
@@ -1954,7 +2787,7 @@
         <v>0.42000000000000004</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1965,7 +2798,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D7" s="5">
         <v>5.6000000000000001E-2</v>
@@ -1975,7 +2808,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1986,7 +2819,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="D8" s="5">
         <v>5.5E-2</v>
@@ -2004,7 +2837,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="5">
         <v>2.3E-2</v>
@@ -2014,309 +2847,315 @@
         <v>0.22999999999999998</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>1759156</v>
+      </c>
+      <c r="B10" s="5">
+        <v>30</v>
+      </c>
       <c r="C10" s="5" t="s">
-        <v>75</v>
+        <v>130</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2.3E-2</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>74</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
-        <v>1759156</v>
+        <v>1135383</v>
       </c>
       <c r="B11" s="5">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="D11" s="5">
-        <v>2.3E-2</v>
+        <v>1.04</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="1"/>
-        <v>0.69</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
-        <v>1135383</v>
+        <v>8906068</v>
       </c>
       <c r="B12" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="D12" s="5">
-        <v>1.04</v>
+        <v>2.31</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="1"/>
-        <v>2.08</v>
+        <v>13.86</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
-        <v>8906068</v>
+        <v>2115321</v>
       </c>
       <c r="B13" s="5">
         <v>6</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D13" s="5">
-        <v>2.31</v>
+        <v>0.123</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="1"/>
-        <v>13.86</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
-        <v>2115321</v>
+        <v>2329934</v>
       </c>
       <c r="B14" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="D14" s="5">
-        <v>0.123</v>
+        <v>3.1E-2</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="1"/>
-        <v>0.73799999999999999</v>
+        <v>0</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
-        <v>2329934</v>
+        <v>1854074</v>
       </c>
       <c r="B15" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D15" s="5">
-        <v>3.1E-2</v>
+        <v>2.92</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>78</v>
+        <v>5.84</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
-        <v>1854074</v>
+        <v>2341911</v>
       </c>
       <c r="B16" s="5">
         <v>2</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D16" s="5">
-        <v>2.92</v>
+        <v>0.74099999999999999</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" si="1"/>
-        <v>5.84</v>
+        <v>1.482</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
-        <v>2341911</v>
+        <v>1243244</v>
       </c>
       <c r="B17" s="5">
         <v>2</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D17" s="5">
-        <v>0.74099999999999999</v>
+        <v>2.62</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" si="1"/>
-        <v>1.482</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
-        <v>1243244</v>
+        <v>1332087</v>
       </c>
       <c r="B18" s="5">
         <v>2</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="D18" s="5">
-        <v>2.62</v>
+        <v>1.45</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="1"/>
-        <v>5.24</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
-        <v>1332087</v>
+        <v>1207307</v>
       </c>
       <c r="B19" s="5">
         <v>2</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="D19" s="5">
-        <v>1.45</v>
+        <v>3.97</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="1"/>
-        <v>2.9</v>
+        <v>7.94</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
-        <v>1207307</v>
+        <v>1843876</v>
       </c>
       <c r="B20" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="D20" s="5">
-        <v>3.97</v>
+        <v>2.91</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="1"/>
-        <v>7.94</v>
+        <v>17.46</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
-        <v>1843876</v>
+        <v>1657931</v>
       </c>
       <c r="B21" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="5">
-        <v>2.91</v>
+        <v>62</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" si="1"/>
-        <v>17.46</v>
+        <v>0</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
-        <v>1657931</v>
+        <v>1892899</v>
       </c>
       <c r="B22" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>84</v>
+        <v>64</v>
+      </c>
+      <c r="D22" s="5">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>85</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
-        <v>1892899</v>
+        <v>9101241</v>
       </c>
       <c r="B23" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="D23" s="5">
-        <v>6.6000000000000003E-2</v>
+        <v>0.74099999999999999</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" si="1"/>
-        <v>0.66</v>
+        <v>4.4459999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
-        <v>9101241</v>
+        <v>1636136</v>
       </c>
       <c r="B24" s="5">
         <v>6</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="D24" s="5">
-        <v>0.74099999999999999</v>
+        <v>1.68</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" si="1"/>
-        <v>4.4459999999999997</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
-        <v>1636136</v>
+        <v>1085264</v>
       </c>
       <c r="B25" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="D25" s="5">
-        <v>1.68</v>
+        <v>0.2</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" si="1"/>
-        <v>10.08</v>
+        <v>0.60000000000000009</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
-        <v>1085264</v>
+        <v>1085266</v>
       </c>
       <c r="B26" s="5">
         <v>3</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D26" s="5">
         <v>0.2</v>
@@ -2328,94 +3167,104 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
-        <v>1085266</v>
+        <v>1759252</v>
       </c>
       <c r="B27" s="5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="D27" s="5">
-        <v>0.2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" si="1"/>
-        <v>0.60000000000000009</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <v>1759252</v>
+        <v>1563120</v>
       </c>
       <c r="B28" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="D28" s="5">
-        <v>1.7000000000000001E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" si="1"/>
-        <v>0.17</v>
+        <v>0.22499999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
-        <v>1563120</v>
+        <v>1226888</v>
       </c>
       <c r="B29" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="D29" s="5">
-        <v>4.4999999999999998E-2</v>
+        <v>2.16</v>
       </c>
       <c r="E29" s="5">
         <f t="shared" si="1"/>
-        <v>0.22499999999999998</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
-        <v>1226888</v>
+        <v>1103919</v>
       </c>
       <c r="B30" s="5">
         <v>2</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="D30" s="5">
-        <v>2.16</v>
+        <v>1.06</v>
       </c>
       <c r="E30" s="5">
         <f t="shared" si="1"/>
-        <v>4.32</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>5095487</v>
+      </c>
       <c r="B31" s="5">
         <v>2</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="5">
+        <v>10.91</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="1"/>
+        <v>21.82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6">
-        <f>SUM(E2:E30)</f>
-        <v>90.464999999999975</v>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6">
+        <f>SUM(E2:E31)</f>
+        <v>114.40499999999997</v>
       </c>
     </row>
   </sheetData>
@@ -2429,7 +3278,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2460,7 +3309,7 @@
         <v>27</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2471,7 +3320,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>106</v>
+        <v>380</v>
       </c>
       <c r="D2" s="5">
         <v>0.14099999999999999</v>
@@ -2510,19 +3359,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2533,7 +3382,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D2">
         <v>8.4499999999999993</v>
@@ -2569,7 +3418,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>26</v>
@@ -2584,24 +3433,24 @@
         <v>27</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B2" s="5">
         <v>2</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="D2" s="5">
         <v>0.34</v>
@@ -2611,18 +3460,18 @@
         <v>0.68</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="B3" s="5">
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="D3" s="5">
         <v>0.39</v>
@@ -2632,18 +3481,18 @@
         <v>0.78</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B4" s="5">
         <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="D4" s="5">
         <v>0.26</v>
@@ -2653,7 +3502,7 @@
         <v>4.68</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2670,13 +3519,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="B7" s="5">
         <v>4</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="D7" s="5">
         <v>0.27</v>
@@ -2695,13 +3544,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="B8" s="5">
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="D8" s="5">
         <v>0.7</v>
@@ -2713,13 +3562,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B10" s="5">
         <v>13</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D10" s="5">
         <v>0.36</v>
@@ -2738,13 +3587,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="B11" s="5">
         <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D11" s="5">
         <v>1.1100000000000001</v>
@@ -2756,13 +3605,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="B13" s="5">
         <v>4</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D13" s="5">
         <v>0.37</v>
@@ -2781,13 +3630,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="B14" s="5">
         <v>2</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="D14" s="5">
         <v>1.3</v>
@@ -2799,13 +3648,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5">
         <v>1</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="D16" s="5">
         <v>0.43</v>
@@ -2824,13 +3673,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="B17" s="5">
         <v>1</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="D17" s="5">
         <v>1.6</v>
@@ -2842,13 +3691,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="B20" s="5">
         <v>100</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="D20" s="5">
         <v>6.7199999999999996E-2</v>
@@ -2860,13 +3709,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="B22" s="5">
         <v>2</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D22" s="5">
         <v>19.21</v>
@@ -2891,15 +3740,2549 @@
     </row>
     <row r="38" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="E38" s="4">
-        <f>Mainboard!E45+Displayboard!E33+Leddriverboard!E18+Digikey!E32</f>
-        <v>283.34100000000001</v>
+        <f>Mainboard!E46+Displayboard!E32+Leddriverboard!E18+Digikey!E32</f>
+        <v>321.39099999999996</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5703125" customWidth="1"/>
+    <col min="5" max="5" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2317402</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" t="s">
+        <v>356</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1563202</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" t="s">
+        <v>250</v>
+      </c>
+      <c r="H4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I4" t="s">
+        <v>251</v>
+      </c>
+      <c r="J4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1759265</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E6" t="s">
+        <v>253</v>
+      </c>
+      <c r="F6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" t="s">
+        <v>254</v>
+      </c>
+      <c r="H6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I6" t="s">
+        <v>255</v>
+      </c>
+      <c r="J6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>9227946</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I7" t="s">
+        <v>259</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>1843713</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" t="s">
+        <v>261</v>
+      </c>
+      <c r="F9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" t="s">
+        <v>262</v>
+      </c>
+      <c r="H9" t="s">
+        <v>147</v>
+      </c>
+      <c r="I9" t="s">
+        <v>263</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>1828948</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E10" t="s">
+        <v>265</v>
+      </c>
+      <c r="F10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" t="s">
+        <v>266</v>
+      </c>
+      <c r="H10" t="s">
+        <v>147</v>
+      </c>
+      <c r="I10" t="s">
+        <v>267</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>2333744</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>268</v>
+      </c>
+      <c r="E12" t="s">
+        <v>269</v>
+      </c>
+      <c r="F12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G12" t="s">
+        <v>270</v>
+      </c>
+      <c r="H12" t="s">
+        <v>147</v>
+      </c>
+      <c r="I12" t="s">
+        <v>271</v>
+      </c>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>1754000</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>272</v>
+      </c>
+      <c r="E13" t="s">
+        <v>273</v>
+      </c>
+      <c r="F13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" t="s">
+        <v>274</v>
+      </c>
+      <c r="H13" t="s">
+        <v>147</v>
+      </c>
+      <c r="I13" t="s">
+        <v>274</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>9489746</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>275</v>
+      </c>
+      <c r="E15" t="s">
+        <v>276</v>
+      </c>
+      <c r="F15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" t="s">
+        <v>277</v>
+      </c>
+      <c r="H15" t="s">
+        <v>147</v>
+      </c>
+      <c r="I15" t="s">
+        <v>277</v>
+      </c>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>1135383</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>180</v>
+      </c>
+      <c r="E16" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" t="s">
+        <v>182</v>
+      </c>
+      <c r="H16" t="s">
+        <v>147</v>
+      </c>
+      <c r="I16" t="s">
+        <v>357</v>
+      </c>
+      <c r="J16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>1759156</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E17" t="s">
+        <v>177</v>
+      </c>
+      <c r="F17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" t="s">
+        <v>178</v>
+      </c>
+      <c r="H17" t="s">
+        <v>147</v>
+      </c>
+      <c r="I17" t="s">
+        <v>358</v>
+      </c>
+      <c r="J17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>1740680</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>278</v>
+      </c>
+      <c r="E19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" t="s">
+        <v>280</v>
+      </c>
+      <c r="H19" t="s">
+        <v>147</v>
+      </c>
+      <c r="I19" t="s">
+        <v>281</v>
+      </c>
+      <c r="J19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>1758991</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>282</v>
+      </c>
+      <c r="E20" t="s">
+        <v>283</v>
+      </c>
+      <c r="F20" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" t="s">
+        <v>284</v>
+      </c>
+      <c r="H20" t="s">
+        <v>147</v>
+      </c>
+      <c r="I20" t="s">
+        <v>285</v>
+      </c>
+      <c r="J20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>1758951</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>286</v>
+      </c>
+      <c r="E22" t="s">
+        <v>287</v>
+      </c>
+      <c r="F22" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22" t="s">
+        <v>284</v>
+      </c>
+      <c r="H22" t="s">
+        <v>147</v>
+      </c>
+      <c r="I22" t="s">
+        <v>285</v>
+      </c>
+      <c r="J22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>2341911</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>196</v>
+      </c>
+      <c r="E23" t="s">
+        <v>197</v>
+      </c>
+      <c r="F23" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23" t="s">
+        <v>198</v>
+      </c>
+      <c r="H23" t="s">
+        <v>147</v>
+      </c>
+      <c r="I23" t="s">
+        <v>359</v>
+      </c>
+      <c r="J23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>1652573</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>288</v>
+      </c>
+      <c r="E25" t="s">
+        <v>289</v>
+      </c>
+      <c r="F25" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" t="s">
+        <v>290</v>
+      </c>
+      <c r="H25" t="s">
+        <v>147</v>
+      </c>
+      <c r="I25" t="s">
+        <v>291</v>
+      </c>
+      <c r="J25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>17</v>
+      </c>
+      <c r="B26">
+        <v>1319749</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>292</v>
+      </c>
+      <c r="E26" t="s">
+        <v>293</v>
+      </c>
+      <c r="F26" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" t="s">
+        <v>294</v>
+      </c>
+      <c r="H26" t="s">
+        <v>147</v>
+      </c>
+      <c r="I26" t="s">
+        <v>294</v>
+      </c>
+      <c r="J26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>18</v>
+      </c>
+      <c r="B28">
+        <v>1379714</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>295</v>
+      </c>
+      <c r="E28" t="s">
+        <v>296</v>
+      </c>
+      <c r="F28" t="s">
+        <v>145</v>
+      </c>
+      <c r="G28" t="s">
+        <v>274</v>
+      </c>
+      <c r="H28" t="s">
+        <v>147</v>
+      </c>
+      <c r="I28" t="s">
+        <v>274</v>
+      </c>
+      <c r="J28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>19</v>
+      </c>
+      <c r="B29">
+        <v>2115321</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>186</v>
+      </c>
+      <c r="E29" t="s">
+        <v>187</v>
+      </c>
+      <c r="F29" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29" t="s">
+        <v>188</v>
+      </c>
+      <c r="H29" t="s">
+        <v>147</v>
+      </c>
+      <c r="I29" t="s">
+        <v>360</v>
+      </c>
+      <c r="J29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>20</v>
+      </c>
+      <c r="B31">
+        <v>8906068</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>183</v>
+      </c>
+      <c r="E31" t="s">
+        <v>184</v>
+      </c>
+      <c r="F31" t="s">
+        <v>145</v>
+      </c>
+      <c r="G31" t="s">
+        <v>185</v>
+      </c>
+      <c r="H31" t="s">
+        <v>147</v>
+      </c>
+      <c r="I31" t="s">
+        <v>185</v>
+      </c>
+      <c r="J31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>21</v>
+      </c>
+      <c r="B32">
+        <v>2329964</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>297</v>
+      </c>
+      <c r="E32" t="s">
+        <v>298</v>
+      </c>
+      <c r="F32" t="s">
+        <v>145</v>
+      </c>
+      <c r="G32" t="s">
+        <v>191</v>
+      </c>
+      <c r="H32" t="s">
+        <v>147</v>
+      </c>
+      <c r="I32" t="s">
+        <v>251</v>
+      </c>
+      <c r="J32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>22</v>
+      </c>
+      <c r="B33">
+        <v>2329934</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>189</v>
+      </c>
+      <c r="E33" t="s">
+        <v>190</v>
+      </c>
+      <c r="F33" t="s">
+        <v>145</v>
+      </c>
+      <c r="G33" t="s">
+        <v>191</v>
+      </c>
+      <c r="H33" t="s">
+        <v>147</v>
+      </c>
+      <c r="I33" t="s">
+        <v>251</v>
+      </c>
+      <c r="J33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>23</v>
+      </c>
+      <c r="B35">
+        <v>1243244</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>199</v>
+      </c>
+      <c r="E35" t="s">
+        <v>200</v>
+      </c>
+      <c r="F35" t="s">
+        <v>145</v>
+      </c>
+      <c r="G35" t="s">
+        <v>201</v>
+      </c>
+      <c r="H35" t="s">
+        <v>147</v>
+      </c>
+      <c r="I35" t="s">
+        <v>361</v>
+      </c>
+      <c r="J35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>24</v>
+      </c>
+      <c r="B36">
+        <v>1563074</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>299</v>
+      </c>
+      <c r="E36" t="s">
+        <v>300</v>
+      </c>
+      <c r="F36" t="s">
+        <v>145</v>
+      </c>
+      <c r="G36" t="s">
+        <v>239</v>
+      </c>
+      <c r="H36" t="s">
+        <v>147</v>
+      </c>
+      <c r="I36" t="s">
+        <v>175</v>
+      </c>
+      <c r="J36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>25</v>
+      </c>
+      <c r="B38">
+        <v>1703315</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>301</v>
+      </c>
+      <c r="E38" t="s">
+        <v>302</v>
+      </c>
+      <c r="F38" t="s">
+        <v>145</v>
+      </c>
+      <c r="G38" t="s">
+        <v>303</v>
+      </c>
+      <c r="H38" t="s">
+        <v>147</v>
+      </c>
+      <c r="I38" t="s">
+        <v>304</v>
+      </c>
+      <c r="J38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>1652645</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>305</v>
+      </c>
+      <c r="E39" t="s">
+        <v>306</v>
+      </c>
+      <c r="F39" t="s">
+        <v>145</v>
+      </c>
+      <c r="G39" t="s">
+        <v>250</v>
+      </c>
+      <c r="H39" t="s">
+        <v>147</v>
+      </c>
+      <c r="I39" t="s">
+        <v>251</v>
+      </c>
+      <c r="J39" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>27</v>
+      </c>
+      <c r="B41">
+        <v>2164820</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>307</v>
+      </c>
+      <c r="E41" t="s">
+        <v>308</v>
+      </c>
+      <c r="F41" t="s">
+        <v>145</v>
+      </c>
+      <c r="G41" t="s">
+        <v>309</v>
+      </c>
+      <c r="H41" t="s">
+        <v>147</v>
+      </c>
+      <c r="I41" t="s">
+        <v>310</v>
+      </c>
+      <c r="J41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>28</v>
+      </c>
+      <c r="B42">
+        <v>1650715</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>311</v>
+      </c>
+      <c r="E42" t="s">
+        <v>312</v>
+      </c>
+      <c r="F42" t="s">
+        <v>145</v>
+      </c>
+      <c r="G42" t="s">
+        <v>313</v>
+      </c>
+      <c r="H42" t="s">
+        <v>147</v>
+      </c>
+      <c r="I42" t="s">
+        <v>314</v>
+      </c>
+      <c r="J42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>29</v>
+      </c>
+      <c r="B44">
+        <v>1463389</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>315</v>
+      </c>
+      <c r="E44" t="s">
+        <v>316</v>
+      </c>
+      <c r="F44" t="s">
+        <v>145</v>
+      </c>
+      <c r="G44" t="s">
+        <v>317</v>
+      </c>
+      <c r="H44" t="s">
+        <v>147</v>
+      </c>
+      <c r="I44" t="s">
+        <v>318</v>
+      </c>
+      <c r="J44" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>30</v>
+      </c>
+      <c r="B45">
+        <v>1882273</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>319</v>
+      </c>
+      <c r="E45" t="s">
+        <v>320</v>
+      </c>
+      <c r="F45" t="s">
+        <v>145</v>
+      </c>
+      <c r="G45" t="s">
+        <v>321</v>
+      </c>
+      <c r="H45" t="s">
+        <v>147</v>
+      </c>
+      <c r="I45" t="s">
+        <v>321</v>
+      </c>
+      <c r="J45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>31</v>
+      </c>
+      <c r="B47">
+        <v>1332087</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>202</v>
+      </c>
+      <c r="E47" t="s">
+        <v>203</v>
+      </c>
+      <c r="F47" t="s">
+        <v>145</v>
+      </c>
+      <c r="G47" t="s">
+        <v>204</v>
+      </c>
+      <c r="H47" t="s">
+        <v>147</v>
+      </c>
+      <c r="I47" t="s">
+        <v>204</v>
+      </c>
+      <c r="J47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>32</v>
+      </c>
+      <c r="B48">
+        <v>1141477</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>322</v>
+      </c>
+      <c r="E48" t="s">
+        <v>323</v>
+      </c>
+      <c r="F48" t="s">
+        <v>145</v>
+      </c>
+      <c r="G48" t="s">
+        <v>324</v>
+      </c>
+      <c r="H48" t="s">
+        <v>147</v>
+      </c>
+      <c r="I48" t="s">
+        <v>324</v>
+      </c>
+      <c r="J48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>33</v>
+      </c>
+      <c r="B49">
+        <v>1713823</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
+        <v>325</v>
+      </c>
+      <c r="E49" t="s">
+        <v>326</v>
+      </c>
+      <c r="F49" t="s">
+        <v>145</v>
+      </c>
+      <c r="G49" t="s">
+        <v>327</v>
+      </c>
+      <c r="H49" t="s">
+        <v>147</v>
+      </c>
+      <c r="I49" t="s">
+        <v>171</v>
+      </c>
+      <c r="J49" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>34</v>
+      </c>
+      <c r="B50">
+        <v>2068190</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>328</v>
+      </c>
+      <c r="E50" t="s">
+        <v>329</v>
+      </c>
+      <c r="F50" t="s">
+        <v>145</v>
+      </c>
+      <c r="G50" t="s">
+        <v>330</v>
+      </c>
+      <c r="H50" t="s">
+        <v>147</v>
+      </c>
+      <c r="I50" t="s">
+        <v>331</v>
+      </c>
+      <c r="J50" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>35</v>
+      </c>
+      <c r="B51">
+        <v>1612436</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>332</v>
+      </c>
+      <c r="E51" t="s">
+        <v>333</v>
+      </c>
+      <c r="F51" t="s">
+        <v>145</v>
+      </c>
+      <c r="G51" t="s">
+        <v>334</v>
+      </c>
+      <c r="H51" t="s">
+        <v>147</v>
+      </c>
+      <c r="I51" t="s">
+        <v>155</v>
+      </c>
+      <c r="J51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>36</v>
+      </c>
+      <c r="B53">
+        <v>1177883</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>335</v>
+      </c>
+      <c r="E53" t="s">
+        <v>336</v>
+      </c>
+      <c r="F53" t="s">
+        <v>145</v>
+      </c>
+      <c r="G53" t="s">
+        <v>337</v>
+      </c>
+      <c r="H53" t="s">
+        <v>147</v>
+      </c>
+      <c r="I53" t="s">
+        <v>218</v>
+      </c>
+      <c r="J53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>37</v>
+      </c>
+      <c r="B54">
+        <v>636370</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>338</v>
+      </c>
+      <c r="E54" t="s">
+        <v>339</v>
+      </c>
+      <c r="F54" t="s">
+        <v>145</v>
+      </c>
+      <c r="G54" t="s">
+        <v>340</v>
+      </c>
+      <c r="H54" t="s">
+        <v>147</v>
+      </c>
+      <c r="I54" t="s">
+        <v>340</v>
+      </c>
+      <c r="J54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>38</v>
+      </c>
+      <c r="B56">
+        <v>1518419</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>341</v>
+      </c>
+      <c r="E56" t="s">
+        <v>342</v>
+      </c>
+      <c r="F56" t="s">
+        <v>343</v>
+      </c>
+      <c r="G56" t="s">
+        <v>344</v>
+      </c>
+      <c r="H56" t="s">
+        <v>147</v>
+      </c>
+      <c r="I56" t="s">
+        <v>344</v>
+      </c>
+      <c r="J56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>39</v>
+      </c>
+      <c r="B57">
+        <v>1550980</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>345</v>
+      </c>
+      <c r="E57" t="s">
+        <v>346</v>
+      </c>
+      <c r="F57" t="s">
+        <v>145</v>
+      </c>
+      <c r="G57" t="s">
+        <v>347</v>
+      </c>
+      <c r="H57" t="s">
+        <v>147</v>
+      </c>
+      <c r="I57" t="s">
+        <v>347</v>
+      </c>
+      <c r="J57" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>40</v>
+      </c>
+      <c r="B59">
+        <v>1103922</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>348</v>
+      </c>
+      <c r="E59" t="s">
+        <v>349</v>
+      </c>
+      <c r="F59" t="s">
+        <v>145</v>
+      </c>
+      <c r="G59" t="s">
+        <v>350</v>
+      </c>
+      <c r="H59" t="s">
+        <v>147</v>
+      </c>
+      <c r="I59" t="s">
+        <v>351</v>
+      </c>
+      <c r="J59" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>41</v>
+      </c>
+      <c r="B60">
+        <v>2102054</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>352</v>
+      </c>
+      <c r="E60" t="s">
+        <v>353</v>
+      </c>
+      <c r="F60" t="s">
+        <v>343</v>
+      </c>
+      <c r="G60" t="s">
+        <v>354</v>
+      </c>
+      <c r="H60" t="s">
+        <v>147</v>
+      </c>
+      <c r="I60" t="s">
+        <v>354</v>
+      </c>
+      <c r="J60" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>42</v>
+      </c>
+      <c r="B62">
+        <v>2329534</v>
+      </c>
+      <c r="C62">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s">
+        <v>362</v>
+      </c>
+      <c r="E62" t="s">
+        <v>363</v>
+      </c>
+      <c r="F62" t="s">
+        <v>145</v>
+      </c>
+      <c r="G62" t="s">
+        <v>364</v>
+      </c>
+      <c r="H62" t="s">
+        <v>147</v>
+      </c>
+      <c r="I62" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H64" t="s">
+        <v>355</v>
+      </c>
+      <c r="I64" t="s">
+        <v>366</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:XFD51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2317402</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" t="s">
+        <v>367</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2309036</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I4" t="s">
+        <v>151</v>
+      </c>
+      <c r="J4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1759246</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I6" t="s">
+        <v>155</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1286784</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I7" t="s">
+        <v>159</v>
+      </c>
+      <c r="J7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>1527537</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H9" t="s">
+        <v>147</v>
+      </c>
+      <c r="I9" t="s">
+        <v>163</v>
+      </c>
+      <c r="J9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>1527471</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" t="s">
+        <v>166</v>
+      </c>
+      <c r="H10" t="s">
+        <v>147</v>
+      </c>
+      <c r="I10" t="s">
+        <v>167</v>
+      </c>
+      <c r="J10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>2309029</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G12" t="s">
+        <v>170</v>
+      </c>
+      <c r="H12" t="s">
+        <v>147</v>
+      </c>
+      <c r="I12" t="s">
+        <v>171</v>
+      </c>
+      <c r="J12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>1759223</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" t="s">
+        <v>174</v>
+      </c>
+      <c r="H13" t="s">
+        <v>147</v>
+      </c>
+      <c r="I13" t="s">
+        <v>175</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>1759156</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" t="s">
+        <v>178</v>
+      </c>
+      <c r="H14" t="s">
+        <v>147</v>
+      </c>
+      <c r="I14" t="s">
+        <v>368</v>
+      </c>
+      <c r="J14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>1135383</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>180</v>
+      </c>
+      <c r="E15" t="s">
+        <v>181</v>
+      </c>
+      <c r="F15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" t="s">
+        <v>182</v>
+      </c>
+      <c r="H15" t="s">
+        <v>147</v>
+      </c>
+      <c r="I15" t="s">
+        <v>357</v>
+      </c>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>8906068</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E16" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" t="s">
+        <v>185</v>
+      </c>
+      <c r="H16" t="s">
+        <v>147</v>
+      </c>
+      <c r="I16" t="s">
+        <v>369</v>
+      </c>
+      <c r="J16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>2115321</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>186</v>
+      </c>
+      <c r="E18" t="s">
+        <v>187</v>
+      </c>
+      <c r="F18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" t="s">
+        <v>188</v>
+      </c>
+      <c r="H18" t="s">
+        <v>147</v>
+      </c>
+      <c r="I18" t="s">
+        <v>370</v>
+      </c>
+      <c r="J18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>2329934</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>189</v>
+      </c>
+      <c r="E19" t="s">
+        <v>190</v>
+      </c>
+      <c r="F19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" t="s">
+        <v>191</v>
+      </c>
+      <c r="H19" t="s">
+        <v>147</v>
+      </c>
+      <c r="I19" t="s">
+        <v>251</v>
+      </c>
+      <c r="J19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <v>1854074</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>192</v>
+      </c>
+      <c r="E21" t="s">
+        <v>193</v>
+      </c>
+      <c r="F21" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" t="s">
+        <v>194</v>
+      </c>
+      <c r="H21" t="s">
+        <v>147</v>
+      </c>
+      <c r="I21" t="s">
+        <v>195</v>
+      </c>
+      <c r="J21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>2341911</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>196</v>
+      </c>
+      <c r="E22" t="s">
+        <v>197</v>
+      </c>
+      <c r="F22" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22" t="s">
+        <v>198</v>
+      </c>
+      <c r="H22" t="s">
+        <v>147</v>
+      </c>
+      <c r="I22" t="s">
+        <v>371</v>
+      </c>
+      <c r="J22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>1243244</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>199</v>
+      </c>
+      <c r="E24" t="s">
+        <v>200</v>
+      </c>
+      <c r="F24" t="s">
+        <v>145</v>
+      </c>
+      <c r="G24" t="s">
+        <v>201</v>
+      </c>
+      <c r="H24" t="s">
+        <v>147</v>
+      </c>
+      <c r="I24" t="s">
+        <v>361</v>
+      </c>
+      <c r="J24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>17</v>
+      </c>
+      <c r="B25">
+        <v>1332087</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E25" t="s">
+        <v>203</v>
+      </c>
+      <c r="F25" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" t="s">
+        <v>204</v>
+      </c>
+      <c r="H25" t="s">
+        <v>147</v>
+      </c>
+      <c r="I25" t="s">
+        <v>372</v>
+      </c>
+      <c r="J25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>18</v>
+      </c>
+      <c r="B27">
+        <v>1207307</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>205</v>
+      </c>
+      <c r="E27" t="s">
+        <v>206</v>
+      </c>
+      <c r="F27" t="s">
+        <v>145</v>
+      </c>
+      <c r="G27" t="s">
+        <v>207</v>
+      </c>
+      <c r="H27" t="s">
+        <v>147</v>
+      </c>
+      <c r="I27" t="s">
+        <v>208</v>
+      </c>
+      <c r="J27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>19</v>
+      </c>
+      <c r="B28">
+        <v>1843876</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>209</v>
+      </c>
+      <c r="E28" t="s">
+        <v>210</v>
+      </c>
+      <c r="F28" t="s">
+        <v>145</v>
+      </c>
+      <c r="G28" t="s">
+        <v>211</v>
+      </c>
+      <c r="H28" t="s">
+        <v>147</v>
+      </c>
+      <c r="I28" t="s">
+        <v>212</v>
+      </c>
+      <c r="J28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>1657931</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>213</v>
+      </c>
+      <c r="E29" t="s">
+        <v>214</v>
+      </c>
+      <c r="F29" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29" t="s">
+        <v>198</v>
+      </c>
+      <c r="H29" t="s">
+        <v>147</v>
+      </c>
+      <c r="I29" t="s">
+        <v>373</v>
+      </c>
+      <c r="J29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>21</v>
+      </c>
+      <c r="B30">
+        <v>1892899</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>215</v>
+      </c>
+      <c r="E30" t="s">
+        <v>216</v>
+      </c>
+      <c r="F30" t="s">
+        <v>145</v>
+      </c>
+      <c r="G30" t="s">
+        <v>217</v>
+      </c>
+      <c r="H30" t="s">
+        <v>147</v>
+      </c>
+      <c r="I30" t="s">
+        <v>218</v>
+      </c>
+      <c r="J30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>9101241</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31" t="s">
+        <v>220</v>
+      </c>
+      <c r="F31" t="s">
+        <v>221</v>
+      </c>
+      <c r="G31" t="s">
+        <v>198</v>
+      </c>
+      <c r="H31" t="s">
+        <v>147</v>
+      </c>
+      <c r="I31" t="s">
+        <v>222</v>
+      </c>
+      <c r="J31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>1636136</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>223</v>
+      </c>
+      <c r="E33" t="s">
+        <v>224</v>
+      </c>
+      <c r="F33" t="s">
+        <v>145</v>
+      </c>
+      <c r="G33" t="s">
+        <v>225</v>
+      </c>
+      <c r="H33" t="s">
+        <v>147</v>
+      </c>
+      <c r="I33" t="s">
+        <v>226</v>
+      </c>
+      <c r="J33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>24</v>
+      </c>
+      <c r="B34">
+        <v>1085264</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>227</v>
+      </c>
+      <c r="E34" t="s">
+        <v>228</v>
+      </c>
+      <c r="F34" t="s">
+        <v>145</v>
+      </c>
+      <c r="G34" t="s">
+        <v>229</v>
+      </c>
+      <c r="H34" t="s">
+        <v>147</v>
+      </c>
+      <c r="I34" t="s">
+        <v>230</v>
+      </c>
+      <c r="J34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>25</v>
+      </c>
+      <c r="B36">
+        <v>1085266</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>231</v>
+      </c>
+      <c r="E36" t="s">
+        <v>232</v>
+      </c>
+      <c r="F36" t="s">
+        <v>145</v>
+      </c>
+      <c r="G36" t="s">
+        <v>229</v>
+      </c>
+      <c r="H36" t="s">
+        <v>147</v>
+      </c>
+      <c r="I36" t="s">
+        <v>230</v>
+      </c>
+      <c r="J36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>26</v>
+      </c>
+      <c r="B37">
+        <v>1759252</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E37" t="s">
+        <v>234</v>
+      </c>
+      <c r="F37" t="s">
+        <v>145</v>
+      </c>
+      <c r="G37" t="s">
+        <v>235</v>
+      </c>
+      <c r="H37" t="s">
+        <v>147</v>
+      </c>
+      <c r="I37" t="s">
+        <v>236</v>
+      </c>
+      <c r="J37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>27</v>
+      </c>
+      <c r="B39">
+        <v>1563120</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>237</v>
+      </c>
+      <c r="E39" t="s">
+        <v>238</v>
+      </c>
+      <c r="F39" t="s">
+        <v>145</v>
+      </c>
+      <c r="G39" t="s">
+        <v>239</v>
+      </c>
+      <c r="H39" t="s">
+        <v>147</v>
+      </c>
+      <c r="I39" t="s">
+        <v>175</v>
+      </c>
+      <c r="J39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>28</v>
+      </c>
+      <c r="B40">
+        <v>1226888</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>240</v>
+      </c>
+      <c r="E40" t="s">
+        <v>241</v>
+      </c>
+      <c r="F40" t="s">
+        <v>145</v>
+      </c>
+      <c r="G40" t="s">
+        <v>242</v>
+      </c>
+      <c r="H40" t="s">
+        <v>147</v>
+      </c>
+      <c r="I40" t="s">
+        <v>243</v>
+      </c>
+      <c r="J40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>29</v>
+      </c>
+      <c r="B42">
+        <v>1103919</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>244</v>
+      </c>
+      <c r="E42" t="s">
+        <v>245</v>
+      </c>
+      <c r="F42" t="s">
+        <v>145</v>
+      </c>
+      <c r="G42" t="s">
+        <v>246</v>
+      </c>
+      <c r="H42" t="s">
+        <v>147</v>
+      </c>
+      <c r="I42" t="s">
+        <v>247</v>
+      </c>
+      <c r="J42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>30</v>
+      </c>
+      <c r="B43">
+        <v>5095487</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>374</v>
+      </c>
+      <c r="E43" t="s">
+        <v>375</v>
+      </c>
+      <c r="F43" t="s">
+        <v>376</v>
+      </c>
+      <c r="G43" t="s">
+        <v>377</v>
+      </c>
+      <c r="H43" t="s">
+        <v>147</v>
+      </c>
+      <c r="I43" t="s">
+        <v>378</v>
+      </c>
+      <c r="J43" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>355</v>
+      </c>
+      <c r="I46" t="s">
+        <v>379</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1892887</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>381</v>
+      </c>
+      <c r="E3" t="s">
+        <v>382</v>
+      </c>
+      <c r="F3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" t="s">
+        <v>383</v>
+      </c>
+      <c r="H3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" t="s">
+        <v>384</v>
+      </c>
+      <c r="J3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/pcb/RGBClock/BOM-Farnell-Digikey.xlsx
+++ b/pcb/RGBClock/BOM-Farnell-Digikey.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Proto" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,10 @@
     <sheet name="MB-Farnell-Basket" sheetId="7" r:id="rId7"/>
     <sheet name="DB-Farnell-Basket" sheetId="8" r:id="rId8"/>
     <sheet name="LD-Farnell-Basket" sheetId="9" r:id="rId9"/>
+    <sheet name="Basket" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="basket_1" localSheetId="6">'MB-Farnell-Basket'!$A$1:$J$64</definedName>
+    <definedName name="basket_1" localSheetId="6">'MB-Farnell-Basket'!$A$1:$J$56</definedName>
     <definedName name="basketdb" localSheetId="7">'DB-Farnell-Basket'!$A$1:$J$51</definedName>
     <definedName name="basketld" localSheetId="8">'LD-Farnell-Basket'!$A$1:$J$5</definedName>
   </definedNames>
@@ -80,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="321">
   <si>
     <t>Toch button</t>
   </si>
@@ -535,9 +536,6 @@
     <t>0.1302</t>
   </si>
   <si>
-    <t>0.78</t>
-  </si>
-  <si>
     <t>CAP, CERAMIC, 0.01UF, 50V, X7R, 0805</t>
   </si>
   <si>
@@ -547,9 +545,6 @@
     <t>0.0133</t>
   </si>
   <si>
-    <t>0.13</t>
-  </si>
-  <si>
     <t>IC, V REG 0.8A ADJ, SMD, SOP8, 3878</t>
   </si>
   <si>
@@ -559,9 +554,6 @@
     <t>1.82</t>
   </si>
   <si>
-    <t>7.3</t>
-  </si>
-  <si>
     <t>RESISTOR, 0603, 4K02 1% 50PPM</t>
   </si>
   <si>
@@ -571,9 +563,6 @@
     <t>0.0408</t>
   </si>
   <si>
-    <t>0.41</t>
-  </si>
-  <si>
     <t>RESISTOR, 0603, 1K0 1% 50PPM</t>
   </si>
   <si>
@@ -583,9 +572,6 @@
     <t>0.057</t>
   </si>
   <si>
-    <t>0.57</t>
-  </si>
-  <si>
     <t>CAPACITOR , 10UF, 6.3V, X5R, 20%, 0805</t>
   </si>
   <si>
@@ -595,9 +581,6 @@
     <t>0.056</t>
   </si>
   <si>
-    <t>0.45</t>
-  </si>
-  <si>
     <t>MLCC, 0805, NP0, 50V, 680PF</t>
   </si>
   <si>
@@ -607,9 +590,6 @@
     <t>0.0228</t>
   </si>
   <si>
-    <t>0.23</t>
-  </si>
-  <si>
     <t>MLCC, 0805, X7R, 16V, 470NF</t>
   </si>
   <si>
@@ -667,9 +647,6 @@
     <t>2.97</t>
   </si>
   <si>
-    <t>5.95</t>
-  </si>
-  <si>
     <t>DIODE ARRAY, TVS, BI 3V, 3PF, SOD-323</t>
   </si>
   <si>
@@ -706,9 +683,6 @@
     <t>4.05</t>
   </si>
   <si>
-    <t>8.09</t>
-  </si>
-  <si>
     <t>IC, LED DRIVER, BUCK, 1A, TSOT23</t>
   </si>
   <si>
@@ -718,9 +692,6 @@
     <t>2.96</t>
   </si>
   <si>
-    <t>17.78</t>
-  </si>
-  <si>
     <t>CAP, CERAMIC, 2.2UF, 25V, X7R, 0805</t>
   </si>
   <si>
@@ -736,9 +707,6 @@
     <t>0.0665</t>
   </si>
   <si>
-    <t>0.66</t>
-  </si>
-  <si>
     <t>DIODE, SCHOTTKY, 3A, 100V, SMC</t>
   </si>
   <si>
@@ -748,9 +716,6 @@
     <t xml:space="preserve">Y-EX </t>
   </si>
   <si>
-    <t>4.56</t>
-  </si>
-  <si>
     <t>CHOKE, SMD, 68UH</t>
   </si>
   <si>
@@ -760,9 +725,6 @@
     <t>1.72</t>
   </si>
   <si>
-    <t>10.32</t>
-  </si>
-  <si>
     <t>74HCT SINGLE GATE, SMD, 74HCT1G14</t>
   </si>
   <si>
@@ -772,9 +734,6 @@
     <t>0.2033</t>
   </si>
   <si>
-    <t>0.61</t>
-  </si>
-  <si>
     <t>74HCT SINGLE GATE, SMD, 74HCT1G86</t>
   </si>
   <si>
@@ -790,9 +749,6 @@
     <t>0.0171</t>
   </si>
   <si>
-    <t>0.17</t>
-  </si>
-  <si>
     <t>RESISTOR, 1K0, 0.25W 0.5% 50PPM</t>
   </si>
   <si>
@@ -811,9 +767,6 @@
     <t>2.2</t>
   </si>
   <si>
-    <t>4.41</t>
-  </si>
-  <si>
     <t>SOCKET, IDC, WITH S/RELIEF, 16WAY</t>
   </si>
   <si>
@@ -823,9 +776,6 @@
     <t>1.04</t>
   </si>
   <si>
-    <t>2.09</t>
-  </si>
-  <si>
     <t>RESISTOR, 3K48, 0.25W 0.5% 50PPM</t>
   </si>
   <si>
@@ -835,21 +785,6 @@
     <t>0.0636</t>
   </si>
   <si>
-    <t>0.32</t>
-  </si>
-  <si>
-    <t>CAP, CERAMIC, 0.1UF, 50V, X7R, 0805</t>
-  </si>
-  <si>
-    <t>MULTICOMP - MC0805B104K500CT</t>
-  </si>
-  <si>
-    <t>0.0124</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
     <t>CAPACITOR, 1206, 4.7UF, 16V</t>
   </si>
   <si>
@@ -859,33 +794,6 @@
     <t>0.1387</t>
   </si>
   <si>
-    <t>1.39</t>
-  </si>
-  <si>
-    <t>DIODE, SCHOTTKY, 1A, 30V, SMA</t>
-  </si>
-  <si>
-    <t>DIODES INC. - B130-13-F</t>
-  </si>
-  <si>
-    <t>0.361</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>CAPACITOR, 0805, X7R, 50V, 10NF</t>
-  </si>
-  <si>
-    <t>MURATA - GRM216R71H103KA01D</t>
-  </si>
-  <si>
-    <t>0.0399</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
     <t>INDUCTOR, 68UH, 20%, 1.5A, SMD</t>
   </si>
   <si>
@@ -895,9 +803,6 @@
     <t>0.798</t>
   </si>
   <si>
-    <t>0.8</t>
-  </si>
-  <si>
     <t>CAPACITOR, TANTALUM, 10V, 68UF</t>
   </si>
   <si>
@@ -907,15 +812,6 @@
     <t>3.37</t>
   </si>
   <si>
-    <t>SWITCHING REG 1A 5.0V, SMD, 2675</t>
-  </si>
-  <si>
-    <t>TEXAS INSTRUMENTS - LM2675M-5.0</t>
-  </si>
-  <si>
-    <t>3.97</t>
-  </si>
-  <si>
     <t>CAP MLCC, 0.022UF, 100V, X7R, 10%, 0805</t>
   </si>
   <si>
@@ -925,9 +821,6 @@
     <t>0.0864</t>
   </si>
   <si>
-    <t>0.86</t>
-  </si>
-  <si>
     <t>CAP, CERAMIC, 1000PF, 50V, X7R, 0402</t>
   </si>
   <si>
@@ -937,9 +830,6 @@
     <t>0.0066</t>
   </si>
   <si>
-    <t>0.07</t>
-  </si>
-  <si>
     <t>MLCC, 0402, NP0, 50V, 22PF</t>
   </si>
   <si>
@@ -955,9 +845,6 @@
     <t>0.1843</t>
   </si>
   <si>
-    <t>0.37</t>
-  </si>
-  <si>
     <t>HOLDER, BATTERY, THT, CR2032</t>
   </si>
   <si>
@@ -994,9 +881,6 @@
     <t>0.9215</t>
   </si>
   <si>
-    <t>0.92</t>
-  </si>
-  <si>
     <t>METAL FILM RESISTOR</t>
   </si>
   <si>
@@ -1012,9 +896,6 @@
     <t>0.646</t>
   </si>
   <si>
-    <t>2.58</t>
-  </si>
-  <si>
     <t>CAPACITOR, CERAMIC MULTILAYER</t>
   </si>
   <si>
@@ -1024,9 +905,6 @@
     <t>0.665</t>
   </si>
   <si>
-    <t>2.66</t>
-  </si>
-  <si>
     <t>CAPACITOR, 1UF, 25V, X5R</t>
   </si>
   <si>
@@ -1036,18 +914,6 @@
     <t>0.1168</t>
   </si>
   <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>LINE DRIVER, STER, ADJ, 14TSSOP</t>
-  </si>
-  <si>
-    <t>TEXAS INSTRUMENTS - DRV612PW</t>
-  </si>
-  <si>
-    <t>1.42</t>
-  </si>
-  <si>
     <t>TRIMMER, POT, 100K, 1TURN, SMD</t>
   </si>
   <si>
@@ -1057,15 +923,6 @@
     <t>1.57</t>
   </si>
   <si>
-    <t>MOSFET, N CH, 60V, 0.115A, SOT23</t>
-  </si>
-  <si>
-    <t>DIODES INC. - 2N7002-7-F</t>
-  </si>
-  <si>
-    <t>0.0893</t>
-  </si>
-  <si>
     <t>RELAY, SMD, DPDT, 1A, 9VDC</t>
   </si>
   <si>
@@ -1075,9 +932,6 @@
     <t>6.03</t>
   </si>
   <si>
-    <t>24.13</t>
-  </si>
-  <si>
     <t>LED, 5MM, GREEN</t>
   </si>
   <si>
@@ -1135,9 +989,6 @@
     <t>1.43</t>
   </si>
   <si>
-    <t>2.87</t>
-  </si>
-  <si>
     <t>MAGNIFIER, ILLUMINATED, HEAD BAND</t>
   </si>
   <si>
@@ -1150,24 +1001,6 @@
     <t>Subtotaal:</t>
   </si>
   <si>
-    <t>0.49</t>
-  </si>
-  <si>
-    <t>2.11</t>
-  </si>
-  <si>
-    <t>0.33</t>
-  </si>
-  <si>
-    <t>2.28</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>5.36</t>
-  </si>
-  <si>
     <t>RESISTOR, CARBON , 4K7, 0.25W, 5%</t>
   </si>
   <si>
@@ -1177,33 +1010,6 @@
     <t>0.019</t>
   </si>
   <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>132.3</t>
-  </si>
-  <si>
-    <t>0.99</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>14.14</t>
-  </si>
-  <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>1.52</t>
-  </si>
-  <si>
-    <t>2.91</t>
-  </si>
-  <si>
-    <t>6.08</t>
-  </si>
-  <si>
     <t>SPEAKER, 2.5, FULL RANGE</t>
   </si>
   <si>
@@ -1216,12 +1022,6 @@
     <t>10.91</t>
   </si>
   <si>
-    <t>21.81</t>
-  </si>
-  <si>
-    <t>122.32</t>
-  </si>
-  <si>
     <t>R11-R12-R13</t>
   </si>
   <si>
@@ -1235,6 +1035,15 @@
   </si>
   <si>
     <t>0.68</t>
+  </si>
+  <si>
+    <t>PSU Exit</t>
+  </si>
+  <si>
+    <t>PSUExit</t>
+  </si>
+  <si>
+    <t>dd</t>
   </si>
 </sst>
 </file>
@@ -1833,6 +1642,761 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C67"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:XFD67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>2317402</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1563202</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>9227946</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2333744</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1754000</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1135383</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1759156</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1740680</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1758991</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1758951</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2341911</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1652573</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1319749</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1379714</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2115321</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2329964</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2329934</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1243244</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1563074</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1703315</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1652645</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2164820</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1650715</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1463389</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1332087</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1141477</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2068190</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1612436</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1177883</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>636370</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1518419</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1550980</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1103922</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2102054</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2329534</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2112412</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2317402</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2309036</v>
+      </c>
+      <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1759246</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1286784</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1527537</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1527471</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2309029</v>
+      </c>
+      <c r="B43">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1759223</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1759156</v>
+      </c>
+      <c r="B45">
+        <v>30</v>
+      </c>
+      <c r="C45" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1135383</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>8906068</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2115321</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2329934</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1854074</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2341911</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1243244</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1332087</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1207307</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1843876</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1657931</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1892899</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>9101241</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1636136</v>
+      </c>
+      <c r="B59">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1085264</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1085266</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1759252</v>
+      </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1563120</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1226888</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1103919</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>5095487</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1892887</v>
+      </c>
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>313</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F46"/>
@@ -2657,7 +3221,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C31"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3320,7 +3884,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>380</v>
+        <v>313</v>
       </c>
       <c r="D2" s="5">
         <v>0.14099999999999999</v>
@@ -3403,7 +3967,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3755,10 +4319,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B55" sqref="B3:J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3832,8 +4396,8 @@
       <c r="H3" t="s">
         <v>147</v>
       </c>
-      <c r="I3" t="s">
-        <v>356</v>
+      <c r="I3">
+        <v>0.49</v>
       </c>
       <c r="J3" t="s">
         <v>29</v>
@@ -3850,22 +4414,22 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="E4" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="F4" t="s">
         <v>145</v>
       </c>
       <c r="G4" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="H4" t="s">
         <v>147</v>
       </c>
-      <c r="I4" t="s">
-        <v>251</v>
+      <c r="I4">
+        <v>0.32</v>
       </c>
       <c r="J4" t="s">
         <v>50</v>
@@ -3873,1287 +4437,1078 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>1759265</v>
+        <v>9227946</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="E6" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="F6" t="s">
         <v>145</v>
       </c>
       <c r="G6" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="H6" t="s">
         <v>147</v>
       </c>
-      <c r="I6" t="s">
-        <v>255</v>
+      <c r="I6">
+        <v>1.39</v>
       </c>
       <c r="J6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>9227946</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>256</v>
-      </c>
-      <c r="E7" t="s">
-        <v>257</v>
-      </c>
-      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2333744</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F8" t="s">
         <v>145</v>
       </c>
-      <c r="G7" t="s">
-        <v>258</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G8" t="s">
+        <v>239</v>
+      </c>
+      <c r="H8" t="s">
         <v>147</v>
       </c>
-      <c r="I7" t="s">
-        <v>259</v>
-      </c>
-      <c r="J7" t="s">
-        <v>30</v>
+      <c r="I8">
+        <v>0.8</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>1843713</v>
+        <v>1754000</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="E9" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="F9" t="s">
         <v>145</v>
       </c>
       <c r="G9" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="H9" t="s">
         <v>147</v>
       </c>
-      <c r="I9" t="s">
-        <v>263</v>
+      <c r="I9">
+        <v>3.37</v>
       </c>
       <c r="J9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>1828948</v>
-      </c>
-      <c r="C10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
-        <v>264</v>
-      </c>
-      <c r="E10" t="s">
-        <v>265</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="B11">
+        <v>1135383</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" t="s">
         <v>145</v>
       </c>
-      <c r="G10" t="s">
-        <v>266</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="G11" t="s">
+        <v>175</v>
+      </c>
+      <c r="H11" t="s">
         <v>147</v>
       </c>
-      <c r="I10" t="s">
-        <v>267</v>
-      </c>
-      <c r="J10" t="s">
-        <v>32</v>
+      <c r="I11">
+        <v>2.11</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>2333744</v>
+        <v>1759156</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>268</v>
+        <v>169</v>
       </c>
       <c r="E12" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="F12" t="s">
         <v>145</v>
       </c>
       <c r="G12" t="s">
-        <v>270</v>
+        <v>171</v>
       </c>
       <c r="H12" t="s">
         <v>147</v>
       </c>
-      <c r="I12" t="s">
-        <v>271</v>
+      <c r="I12">
+        <v>0.33</v>
       </c>
       <c r="J12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>8</v>
-      </c>
-      <c r="B13">
-        <v>1754000</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>272</v>
-      </c>
-      <c r="E13" t="s">
-        <v>273</v>
-      </c>
-      <c r="F13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1740680</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>243</v>
+      </c>
+      <c r="E14" t="s">
+        <v>244</v>
+      </c>
+      <c r="F14" t="s">
         <v>145</v>
       </c>
-      <c r="G13" t="s">
-        <v>274</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="G14" t="s">
+        <v>245</v>
+      </c>
+      <c r="H14" t="s">
         <v>147</v>
       </c>
-      <c r="I13" t="s">
-        <v>274</v>
-      </c>
-      <c r="J13" t="s">
-        <v>34</v>
+      <c r="I14">
+        <v>0.86</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>9489746</v>
+        <v>1758991</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="E15" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="F15" t="s">
         <v>145</v>
       </c>
       <c r="G15" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="H15" t="s">
         <v>147</v>
       </c>
-      <c r="I15" t="s">
-        <v>277</v>
+      <c r="I15">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>10</v>
-      </c>
-      <c r="B16">
-        <v>1135383</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>180</v>
-      </c>
-      <c r="E16" t="s">
-        <v>181</v>
-      </c>
-      <c r="F16" t="s">
-        <v>145</v>
-      </c>
-      <c r="G16" t="s">
-        <v>182</v>
-      </c>
-      <c r="H16" t="s">
-        <v>147</v>
-      </c>
-      <c r="I16" t="s">
-        <v>357</v>
-      </c>
-      <c r="J16" t="s">
-        <v>113</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>1759156</v>
+        <v>1758951</v>
       </c>
       <c r="C17">
         <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>176</v>
+        <v>249</v>
       </c>
       <c r="E17" t="s">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="F17" t="s">
         <v>145</v>
       </c>
       <c r="G17" t="s">
-        <v>178</v>
+        <v>248</v>
       </c>
       <c r="H17" t="s">
         <v>147</v>
       </c>
-      <c r="I17" t="s">
-        <v>358</v>
+      <c r="I17">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>12</v>
-      </c>
-      <c r="B19">
-        <v>1740680</v>
-      </c>
-      <c r="C19">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>278</v>
-      </c>
-      <c r="E19" t="s">
-        <v>279</v>
-      </c>
-      <c r="F19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>2341911</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E18" t="s">
+        <v>189</v>
+      </c>
+      <c r="F18" t="s">
         <v>145</v>
       </c>
-      <c r="G19" t="s">
-        <v>280</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="G18" t="s">
+        <v>190</v>
+      </c>
+      <c r="H18" t="s">
         <v>147</v>
       </c>
-      <c r="I19" t="s">
-        <v>281</v>
-      </c>
-      <c r="J19" t="s">
-        <v>38</v>
+      <c r="I18">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="J18" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B20">
-        <v>1758991</v>
+        <v>1652573</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="E20" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="F20" t="s">
         <v>145</v>
       </c>
       <c r="G20" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="H20" t="s">
         <v>147</v>
       </c>
-      <c r="I20" t="s">
-        <v>285</v>
+      <c r="I20">
+        <v>0.37</v>
       </c>
       <c r="J20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>14</v>
-      </c>
-      <c r="B22">
-        <v>1758951</v>
-      </c>
-      <c r="C22">
-        <v>10</v>
-      </c>
-      <c r="D22" t="s">
-        <v>286</v>
-      </c>
-      <c r="E22" t="s">
-        <v>287</v>
-      </c>
-      <c r="F22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>1319749</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>254</v>
+      </c>
+      <c r="E21" t="s">
+        <v>255</v>
+      </c>
+      <c r="F21" t="s">
         <v>145</v>
       </c>
-      <c r="G22" t="s">
-        <v>284</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="G21" t="s">
+        <v>256</v>
+      </c>
+      <c r="H21" t="s">
         <v>147</v>
       </c>
-      <c r="I22" t="s">
-        <v>285</v>
-      </c>
-      <c r="J22" t="s">
-        <v>115</v>
+      <c r="I21">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="J21" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B23">
-        <v>2341911</v>
+        <v>1379714</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>196</v>
+        <v>257</v>
       </c>
       <c r="E23" t="s">
-        <v>197</v>
+        <v>258</v>
       </c>
       <c r="F23" t="s">
         <v>145</v>
       </c>
       <c r="G23" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="H23" t="s">
         <v>147</v>
       </c>
-      <c r="I23" t="s">
-        <v>359</v>
+      <c r="I23">
+        <v>3.37</v>
       </c>
       <c r="J23" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>16</v>
-      </c>
-      <c r="B25">
-        <v>1652573</v>
-      </c>
-      <c r="C25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>2115321</v>
+      </c>
+      <c r="C24">
         <v>2</v>
       </c>
-      <c r="D25" t="s">
-        <v>288</v>
-      </c>
-      <c r="E25" t="s">
-        <v>289</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="D24" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24" t="s">
+        <v>180</v>
+      </c>
+      <c r="F24" t="s">
         <v>145</v>
       </c>
-      <c r="G25" t="s">
-        <v>290</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="G24" t="s">
+        <v>181</v>
+      </c>
+      <c r="H24" t="s">
         <v>147</v>
       </c>
-      <c r="I25" t="s">
-        <v>291</v>
-      </c>
-      <c r="J25" t="s">
-        <v>118</v>
+      <c r="I24">
+        <v>0.25</v>
+      </c>
+      <c r="J24" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B26">
-        <v>1319749</v>
+        <v>2329964</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="E26" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="F26" t="s">
         <v>145</v>
       </c>
       <c r="G26" t="s">
-        <v>294</v>
+        <v>184</v>
       </c>
       <c r="H26" t="s">
         <v>147</v>
       </c>
-      <c r="I26" t="s">
-        <v>294</v>
+      <c r="I26">
+        <v>0.32</v>
       </c>
       <c r="J26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>18</v>
-      </c>
-      <c r="B28">
-        <v>1379714</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>295</v>
-      </c>
-      <c r="E28" t="s">
-        <v>296</v>
-      </c>
-      <c r="F28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>2329934</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>182</v>
+      </c>
+      <c r="E27" t="s">
+        <v>183</v>
+      </c>
+      <c r="F27" t="s">
         <v>145</v>
       </c>
-      <c r="G28" t="s">
-        <v>274</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="G27" t="s">
+        <v>184</v>
+      </c>
+      <c r="H27" t="s">
         <v>147</v>
       </c>
-      <c r="I28" t="s">
-        <v>274</v>
-      </c>
-      <c r="J28" t="s">
-        <v>41</v>
+      <c r="I27">
+        <v>0.32</v>
+      </c>
+      <c r="J27" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B29">
-        <v>2115321</v>
+        <v>1243244</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E29" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F29" t="s">
         <v>145</v>
       </c>
       <c r="G29" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="H29" t="s">
         <v>147</v>
       </c>
-      <c r="I29" t="s">
-        <v>360</v>
+      <c r="I29">
+        <v>5.36</v>
       </c>
       <c r="J29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>20</v>
-      </c>
-      <c r="B31">
-        <v>8906068</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>183</v>
-      </c>
-      <c r="E31" t="s">
-        <v>184</v>
-      </c>
-      <c r="F31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>24</v>
+      </c>
+      <c r="B30">
+        <v>1563074</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>261</v>
+      </c>
+      <c r="E30" t="s">
+        <v>262</v>
+      </c>
+      <c r="F30" t="s">
         <v>145</v>
       </c>
-      <c r="G31" t="s">
-        <v>185</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="G30" t="s">
+        <v>224</v>
+      </c>
+      <c r="H30" t="s">
         <v>147</v>
       </c>
-      <c r="I31" t="s">
-        <v>185</v>
-      </c>
-      <c r="J31" t="s">
-        <v>42</v>
+      <c r="I30">
+        <v>0.23</v>
+      </c>
+      <c r="J30" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B32">
-        <v>2329964</v>
+        <v>1703315</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="E32" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="F32" t="s">
         <v>145</v>
       </c>
       <c r="G32" t="s">
-        <v>191</v>
+        <v>265</v>
       </c>
       <c r="H32" t="s">
         <v>147</v>
       </c>
-      <c r="I32" t="s">
-        <v>251</v>
+      <c r="I32">
+        <v>0.92</v>
       </c>
       <c r="J32" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B33">
-        <v>2329934</v>
+        <v>1652645</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>189</v>
+        <v>266</v>
       </c>
       <c r="E33" t="s">
-        <v>190</v>
+        <v>267</v>
       </c>
       <c r="F33" t="s">
         <v>145</v>
       </c>
       <c r="G33" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="H33" t="s">
         <v>147</v>
       </c>
-      <c r="I33" t="s">
-        <v>251</v>
+      <c r="I33">
+        <v>0.32</v>
       </c>
       <c r="J33" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B35">
-        <v>1243244</v>
+        <v>2164820</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>199</v>
+        <v>268</v>
       </c>
       <c r="E35" t="s">
-        <v>200</v>
+        <v>269</v>
       </c>
       <c r="F35" t="s">
         <v>145</v>
       </c>
       <c r="G35" t="s">
-        <v>201</v>
+        <v>270</v>
       </c>
       <c r="H35" t="s">
         <v>147</v>
       </c>
-      <c r="I35" t="s">
-        <v>361</v>
+      <c r="I35">
+        <v>2.58</v>
       </c>
       <c r="J35" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B36">
-        <v>1563074</v>
+        <v>1650715</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="E36" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="F36" t="s">
         <v>145</v>
       </c>
       <c r="G36" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="H36" t="s">
         <v>147</v>
       </c>
-      <c r="I36" t="s">
-        <v>175</v>
+      <c r="I36">
+        <v>2.66</v>
       </c>
       <c r="J36" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B38">
-        <v>1703315</v>
+        <v>1463389</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="E38" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="F38" t="s">
         <v>145</v>
       </c>
       <c r="G38" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="H38" t="s">
         <v>147</v>
       </c>
-      <c r="I38" t="s">
-        <v>304</v>
+      <c r="I38">
+        <v>0.35</v>
       </c>
       <c r="J38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>26</v>
-      </c>
-      <c r="B39">
-        <v>1652645</v>
-      </c>
-      <c r="C39">
-        <v>5</v>
-      </c>
-      <c r="D39" t="s">
-        <v>305</v>
-      </c>
-      <c r="E39" t="s">
-        <v>306</v>
-      </c>
-      <c r="F39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>31</v>
+      </c>
+      <c r="B40">
+        <v>1332087</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>194</v>
+      </c>
+      <c r="E40" t="s">
+        <v>195</v>
+      </c>
+      <c r="F40" t="s">
         <v>145</v>
       </c>
-      <c r="G39" t="s">
-        <v>250</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="G40" t="s">
+        <v>196</v>
+      </c>
+      <c r="H40" t="s">
         <v>147</v>
       </c>
-      <c r="I39" t="s">
-        <v>251</v>
-      </c>
-      <c r="J39" t="s">
-        <v>124</v>
+      <c r="I40">
+        <v>1.45</v>
+      </c>
+      <c r="J40" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B41">
-        <v>2164820</v>
+        <v>1141477</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="E41" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="F41" t="s">
         <v>145</v>
       </c>
       <c r="G41" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="H41" t="s">
         <v>147</v>
       </c>
-      <c r="I41" t="s">
-        <v>310</v>
+      <c r="I41">
+        <v>1.57</v>
       </c>
       <c r="J41" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B42">
-        <v>1650715</v>
+        <v>2068190</v>
       </c>
       <c r="C42">
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="E42" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="F42" t="s">
         <v>145</v>
       </c>
       <c r="G42" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="H42" t="s">
         <v>147</v>
       </c>
-      <c r="I42" t="s">
-        <v>314</v>
+      <c r="I42">
+        <v>24.13</v>
       </c>
       <c r="J42" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>29</v>
-      </c>
-      <c r="B44">
-        <v>1463389</v>
-      </c>
-      <c r="C44">
-        <v>3</v>
-      </c>
-      <c r="D44" t="s">
-        <v>315</v>
-      </c>
-      <c r="E44" t="s">
-        <v>316</v>
-      </c>
-      <c r="F44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>35</v>
+      </c>
+      <c r="B43">
+        <v>1612436</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>283</v>
+      </c>
+      <c r="E43" t="s">
+        <v>284</v>
+      </c>
+      <c r="F43" t="s">
         <v>145</v>
       </c>
-      <c r="G44" t="s">
-        <v>317</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="G43" t="s">
+        <v>285</v>
+      </c>
+      <c r="H43" t="s">
         <v>147</v>
       </c>
-      <c r="I44" t="s">
-        <v>318</v>
-      </c>
-      <c r="J44" t="s">
-        <v>127</v>
+      <c r="I43">
+        <v>0.13</v>
+      </c>
+      <c r="J43" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B45">
-        <v>1882273</v>
+        <v>1177883</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="E45" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="F45" t="s">
         <v>145</v>
       </c>
       <c r="G45" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="H45" t="s">
         <v>147</v>
       </c>
-      <c r="I45" t="s">
-        <v>321</v>
+      <c r="I45">
+        <v>0.66</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>31</v>
-      </c>
-      <c r="B47">
-        <v>1332087</v>
-      </c>
-      <c r="C47">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>37</v>
+      </c>
+      <c r="B46">
+        <v>636370</v>
+      </c>
+      <c r="C46">
         <v>1</v>
       </c>
-      <c r="D47" t="s">
-        <v>202</v>
-      </c>
-      <c r="E47" t="s">
-        <v>203</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="D46" t="s">
+        <v>289</v>
+      </c>
+      <c r="E46" t="s">
+        <v>290</v>
+      </c>
+      <c r="F46" t="s">
         <v>145</v>
       </c>
-      <c r="G47" t="s">
-        <v>204</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="G46" t="s">
+        <v>291</v>
+      </c>
+      <c r="H46" t="s">
         <v>147</v>
       </c>
-      <c r="I47" t="s">
-        <v>204</v>
-      </c>
-      <c r="J47" t="s">
-        <v>46</v>
+      <c r="I46">
+        <v>2.98</v>
+      </c>
+      <c r="J46" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B48">
-        <v>1141477</v>
+        <v>1518419</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="E48" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="F48" t="s">
-        <v>145</v>
+        <v>294</v>
       </c>
       <c r="G48" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="H48" t="s">
         <v>147</v>
       </c>
-      <c r="I48" t="s">
-        <v>324</v>
+      <c r="I48">
+        <v>5.0199999999999996</v>
       </c>
       <c r="J48" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B49">
-        <v>1713823</v>
+        <v>1550980</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="E49" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="F49" t="s">
         <v>145</v>
       </c>
       <c r="G49" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="H49" t="s">
         <v>147</v>
       </c>
-      <c r="I49" t="s">
-        <v>171</v>
+      <c r="I49">
+        <v>36.659999999999997</v>
       </c>
       <c r="J49" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>34</v>
-      </c>
-      <c r="B50">
-        <v>2068190</v>
-      </c>
-      <c r="C50">
-        <v>4</v>
-      </c>
-      <c r="D50" t="s">
-        <v>328</v>
-      </c>
-      <c r="E50" t="s">
-        <v>329</v>
-      </c>
-      <c r="F50" t="s">
-        <v>145</v>
-      </c>
-      <c r="G50" t="s">
-        <v>330</v>
-      </c>
-      <c r="H50" t="s">
-        <v>147</v>
-      </c>
-      <c r="I50" t="s">
-        <v>331</v>
-      </c>
-      <c r="J50" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B51">
-        <v>1612436</v>
+        <v>1103922</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="E51" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="F51" t="s">
         <v>145</v>
       </c>
       <c r="G51" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="H51" t="s">
         <v>147</v>
       </c>
-      <c r="I51" t="s">
-        <v>155</v>
+      <c r="I51">
+        <v>2.87</v>
       </c>
       <c r="J51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>36</v>
-      </c>
-      <c r="B53">
-        <v>1177883</v>
-      </c>
-      <c r="C53">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>41</v>
+      </c>
+      <c r="B52">
+        <v>2102054</v>
+      </c>
+      <c r="C52">
         <v>1</v>
       </c>
-      <c r="D53" t="s">
-        <v>335</v>
-      </c>
-      <c r="E53" t="s">
-        <v>336</v>
-      </c>
-      <c r="F53" t="s">
-        <v>145</v>
-      </c>
-      <c r="G53" t="s">
-        <v>337</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="D52" t="s">
+        <v>302</v>
+      </c>
+      <c r="E52" t="s">
+        <v>303</v>
+      </c>
+      <c r="F52" t="s">
+        <v>294</v>
+      </c>
+      <c r="G52" t="s">
+        <v>304</v>
+      </c>
+      <c r="H52" t="s">
         <v>147</v>
       </c>
-      <c r="I53" t="s">
-        <v>218</v>
-      </c>
-      <c r="J53" t="s">
-        <v>51</v>
+      <c r="I52">
+        <v>17.27</v>
+      </c>
+      <c r="J52" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B54">
-        <v>636370</v>
+        <v>2329534</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="E54" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="F54" t="s">
         <v>145</v>
       </c>
       <c r="G54" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="H54" t="s">
         <v>147</v>
       </c>
-      <c r="I54" t="s">
-        <v>340</v>
-      </c>
-      <c r="J54" t="s">
-        <v>52</v>
+      <c r="I54">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>2112412</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="I55">
+        <v>5.3</v>
+      </c>
+      <c r="J55" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>38</v>
-      </c>
-      <c r="B56">
-        <v>1518419</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56" t="s">
-        <v>341</v>
-      </c>
-      <c r="E56" t="s">
-        <v>342</v>
-      </c>
-      <c r="F56" t="s">
-        <v>343</v>
-      </c>
-      <c r="G56" t="s">
-        <v>344</v>
-      </c>
       <c r="H56" t="s">
-        <v>147</v>
-      </c>
-      <c r="I56" t="s">
-        <v>344</v>
-      </c>
-      <c r="J56" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>39</v>
-      </c>
-      <c r="B57">
-        <v>1550980</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57" t="s">
-        <v>345</v>
-      </c>
-      <c r="E57" t="s">
-        <v>346</v>
-      </c>
-      <c r="F57" t="s">
-        <v>145</v>
-      </c>
-      <c r="G57" t="s">
-        <v>347</v>
-      </c>
-      <c r="H57" t="s">
-        <v>147</v>
-      </c>
-      <c r="I57" t="s">
-        <v>347</v>
-      </c>
-      <c r="J57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>40</v>
-      </c>
-      <c r="B59">
-        <v>1103922</v>
-      </c>
-      <c r="C59">
-        <v>2</v>
-      </c>
-      <c r="D59" t="s">
-        <v>348</v>
-      </c>
-      <c r="E59" t="s">
-        <v>349</v>
-      </c>
-      <c r="F59" t="s">
-        <v>145</v>
-      </c>
-      <c r="G59" t="s">
-        <v>350</v>
-      </c>
-      <c r="H59" t="s">
-        <v>147</v>
-      </c>
-      <c r="I59" t="s">
-        <v>351</v>
-      </c>
-      <c r="J59" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>41</v>
-      </c>
-      <c r="B60">
-        <v>2102054</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60" t="s">
-        <v>352</v>
-      </c>
-      <c r="E60" t="s">
-        <v>353</v>
-      </c>
-      <c r="F60" t="s">
-        <v>343</v>
-      </c>
-      <c r="G60" t="s">
-        <v>354</v>
-      </c>
-      <c r="H60" t="s">
-        <v>147</v>
-      </c>
-      <c r="I60" t="s">
-        <v>354</v>
-      </c>
-      <c r="J60" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>42</v>
-      </c>
-      <c r="B62">
-        <v>2329534</v>
-      </c>
-      <c r="C62">
-        <v>10</v>
-      </c>
-      <c r="D62" t="s">
-        <v>362</v>
-      </c>
-      <c r="E62" t="s">
-        <v>363</v>
-      </c>
-      <c r="F62" t="s">
-        <v>145</v>
-      </c>
-      <c r="G62" t="s">
-        <v>364</v>
-      </c>
-      <c r="H62" t="s">
-        <v>147</v>
-      </c>
-      <c r="I62" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H64" t="s">
-        <v>355</v>
-      </c>
-      <c r="I64" t="s">
-        <v>366</v>
+        <v>305</v>
+      </c>
+      <c r="I56">
+        <f>SUM(I3:I55)</f>
+        <v>128.51999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -5165,8 +5520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5179,7 +5534,7 @@
     <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5240,8 +5595,8 @@
       <c r="H3" t="s">
         <v>147</v>
       </c>
-      <c r="I3" t="s">
-        <v>367</v>
+      <c r="I3">
+        <v>0.99</v>
       </c>
       <c r="J3" t="s">
         <v>29</v>
@@ -5272,8 +5627,8 @@
       <c r="H4" t="s">
         <v>147</v>
       </c>
-      <c r="I4" t="s">
-        <v>151</v>
+      <c r="I4">
+        <v>0.78</v>
       </c>
       <c r="J4" t="s">
         <v>53</v>
@@ -5290,22 +5645,22 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" t="s">
         <v>152</v>
-      </c>
-      <c r="E6" t="s">
-        <v>153</v>
       </c>
       <c r="F6" t="s">
         <v>145</v>
       </c>
       <c r="G6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H6" t="s">
         <v>147</v>
       </c>
-      <c r="I6" t="s">
-        <v>155</v>
+      <c r="I6">
+        <v>0.13</v>
       </c>
       <c r="J6" t="s">
         <v>30</v>
@@ -5322,22 +5677,22 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F7" t="s">
         <v>145</v>
       </c>
       <c r="G7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H7" t="s">
         <v>147</v>
       </c>
-      <c r="I7" t="s">
-        <v>159</v>
+      <c r="I7">
+        <v>7.3</v>
       </c>
       <c r="J7" t="s">
         <v>54</v>
@@ -5354,22 +5709,22 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F9" t="s">
         <v>145</v>
       </c>
       <c r="G9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H9" t="s">
         <v>147</v>
       </c>
-      <c r="I9" t="s">
-        <v>163</v>
+      <c r="I9">
+        <v>0.41</v>
       </c>
       <c r="J9" t="s">
         <v>50</v>
@@ -5386,22 +5741,22 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F10" t="s">
         <v>145</v>
       </c>
       <c r="G10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H10" t="s">
         <v>147</v>
       </c>
-      <c r="I10" t="s">
-        <v>167</v>
+      <c r="I10">
+        <v>0.56999999999999995</v>
       </c>
       <c r="J10" t="s">
         <v>55</v>
@@ -5418,22 +5773,22 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F12" t="s">
         <v>145</v>
       </c>
       <c r="G12" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H12" t="s">
         <v>147</v>
       </c>
-      <c r="I12" t="s">
-        <v>171</v>
+      <c r="I12">
+        <v>0.45</v>
       </c>
       <c r="J12" t="s">
         <v>129</v>
@@ -5450,22 +5805,22 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E13" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F13" t="s">
         <v>145</v>
       </c>
       <c r="G13" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H13" t="s">
         <v>147</v>
       </c>
-      <c r="I13" t="s">
-        <v>175</v>
+      <c r="I13">
+        <v>0.23</v>
       </c>
       <c r="J13" t="s">
         <v>32</v>
@@ -5482,25 +5837,25 @@
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E14" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F14" t="s">
         <v>145</v>
       </c>
       <c r="G14" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="H14" t="s">
         <v>147</v>
       </c>
-      <c r="I14" t="s">
-        <v>368</v>
+      <c r="I14">
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -5514,22 +5869,22 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E15" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F15" t="s">
         <v>145</v>
       </c>
       <c r="G15" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="H15" t="s">
         <v>147</v>
       </c>
-      <c r="I15" t="s">
-        <v>357</v>
+      <c r="I15">
+        <v>2.11</v>
       </c>
       <c r="J15" t="s">
         <v>41</v>
@@ -5546,22 +5901,22 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E16" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F16" t="s">
         <v>145</v>
       </c>
       <c r="G16" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="H16" t="s">
         <v>147</v>
       </c>
-      <c r="I16" t="s">
-        <v>369</v>
+      <c r="I16">
+        <v>14.14</v>
       </c>
       <c r="J16" t="s">
         <v>131</v>
@@ -5578,22 +5933,22 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E18" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F18" t="s">
         <v>145</v>
       </c>
       <c r="G18" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="H18" t="s">
         <v>147</v>
       </c>
-      <c r="I18" t="s">
-        <v>370</v>
+      <c r="I18">
+        <v>0.73</v>
       </c>
       <c r="J18" t="s">
         <v>119</v>
@@ -5610,22 +5965,22 @@
         <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E19" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F19" t="s">
         <v>145</v>
       </c>
       <c r="G19" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="H19" t="s">
         <v>147</v>
       </c>
-      <c r="I19" t="s">
-        <v>251</v>
+      <c r="I19">
+        <v>0.32</v>
       </c>
       <c r="J19" t="s">
         <v>121</v>
@@ -5639,25 +5994,25 @@
         <v>1854074</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="E21" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F21" t="s">
         <v>145</v>
       </c>
       <c r="G21" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H21" t="s">
         <v>147</v>
       </c>
-      <c r="I21" t="s">
-        <v>195</v>
+      <c r="I21">
+        <v>2.97</v>
       </c>
       <c r="J21" t="s">
         <v>35</v>
@@ -5674,22 +6029,22 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E22" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F22" t="s">
         <v>145</v>
       </c>
       <c r="G22" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H22" t="s">
         <v>147</v>
       </c>
-      <c r="I22" t="s">
-        <v>371</v>
+      <c r="I22">
+        <v>1.52</v>
       </c>
       <c r="J22" t="s">
         <v>31</v>
@@ -5706,22 +6061,22 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E24" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F24" t="s">
         <v>145</v>
       </c>
       <c r="G24" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H24" t="s">
         <v>147</v>
       </c>
-      <c r="I24" t="s">
-        <v>361</v>
+      <c r="I24">
+        <v>5.36</v>
       </c>
       <c r="J24" t="s">
         <v>57</v>
@@ -5738,22 +6093,22 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E25" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F25" t="s">
         <v>145</v>
       </c>
       <c r="G25" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="H25" t="s">
         <v>147</v>
       </c>
-      <c r="I25" t="s">
-        <v>372</v>
+      <c r="I25">
+        <v>2.91</v>
       </c>
       <c r="J25" t="s">
         <v>58</v>
@@ -5770,22 +6125,22 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E27" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F27" t="s">
         <v>145</v>
       </c>
       <c r="G27" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="H27" t="s">
         <v>147</v>
       </c>
-      <c r="I27" t="s">
-        <v>208</v>
+      <c r="I27">
+        <v>8.09</v>
       </c>
       <c r="J27" t="s">
         <v>59</v>
@@ -5802,22 +6157,22 @@
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="E28" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F28" t="s">
         <v>145</v>
       </c>
       <c r="G28" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="H28" t="s">
         <v>147</v>
       </c>
-      <c r="I28" t="s">
-        <v>212</v>
+      <c r="I28">
+        <v>17.78</v>
       </c>
       <c r="J28" t="s">
         <v>61</v>
@@ -5831,25 +6186,26 @@
         <v>1657931</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E29" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="F29" t="s">
         <v>145</v>
       </c>
-      <c r="G29" t="s">
-        <v>198</v>
+      <c r="G29">
+        <v>0.76</v>
       </c>
       <c r="H29" t="s">
         <v>147</v>
       </c>
-      <c r="I29" t="s">
-        <v>373</v>
+      <c r="I29">
+        <f>G29*C29</f>
+        <v>1.52</v>
       </c>
       <c r="J29" t="s">
         <v>62</v>
@@ -5866,22 +6222,22 @@
         <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E30" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F30" t="s">
         <v>145</v>
       </c>
       <c r="G30" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="H30" t="s">
         <v>147</v>
       </c>
-      <c r="I30" t="s">
-        <v>218</v>
+      <c r="I30">
+        <v>0.66</v>
       </c>
       <c r="J30" t="s">
         <v>64</v>
@@ -5898,22 +6254,22 @@
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="E31" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="F31" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="G31" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H31" t="s">
         <v>147</v>
       </c>
-      <c r="I31" t="s">
-        <v>222</v>
+      <c r="I31">
+        <v>4.5599999999999996</v>
       </c>
       <c r="J31" t="s">
         <v>65</v>
@@ -5930,22 +6286,22 @@
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="E33" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="F33" t="s">
         <v>145</v>
       </c>
       <c r="G33" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="H33" t="s">
         <v>147</v>
       </c>
-      <c r="I33" t="s">
-        <v>226</v>
+      <c r="I33">
+        <v>10.32</v>
       </c>
       <c r="J33" t="s">
         <v>33</v>
@@ -5962,22 +6318,22 @@
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="E34" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="F34" t="s">
         <v>145</v>
       </c>
       <c r="G34" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="H34" t="s">
         <v>147</v>
       </c>
-      <c r="I34" t="s">
-        <v>230</v>
+      <c r="I34">
+        <v>0.61</v>
       </c>
       <c r="J34" t="s">
         <v>66</v>
@@ -5994,22 +6350,22 @@
         <v>3</v>
       </c>
       <c r="D36" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="E36" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="F36" t="s">
         <v>145</v>
       </c>
       <c r="G36" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="H36" t="s">
         <v>147</v>
       </c>
-      <c r="I36" t="s">
-        <v>230</v>
+      <c r="I36">
+        <v>0.61</v>
       </c>
       <c r="J36" t="s">
         <v>67</v>
@@ -6026,22 +6382,22 @@
         <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="E37" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="F37" t="s">
         <v>145</v>
       </c>
       <c r="G37" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="H37" t="s">
         <v>147</v>
       </c>
-      <c r="I37" t="s">
-        <v>236</v>
+      <c r="I37">
+        <v>0.17</v>
       </c>
       <c r="J37" t="s">
         <v>68</v>
@@ -6058,22 +6414,22 @@
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E39" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="F39" t="s">
         <v>145</v>
       </c>
       <c r="G39" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="H39" t="s">
         <v>147</v>
       </c>
-      <c r="I39" t="s">
-        <v>175</v>
+      <c r="I39">
+        <v>0.23</v>
       </c>
       <c r="J39" t="s">
         <v>69</v>
@@ -6090,22 +6446,22 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="E40" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="F40" t="s">
         <v>145</v>
       </c>
       <c r="G40" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="H40" t="s">
         <v>147</v>
       </c>
-      <c r="I40" t="s">
-        <v>243</v>
+      <c r="I40">
+        <v>4.41</v>
       </c>
       <c r="J40" t="s">
         <v>70</v>
@@ -6122,22 +6478,22 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E42" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="F42" t="s">
         <v>145</v>
       </c>
       <c r="G42" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="H42" t="s">
         <v>147</v>
       </c>
-      <c r="I42" t="s">
-        <v>247</v>
+      <c r="I42">
+        <v>2.09</v>
       </c>
       <c r="J42" t="s">
         <v>52</v>
@@ -6154,22 +6510,22 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>374</v>
+        <v>309</v>
       </c>
       <c r="E43" t="s">
-        <v>375</v>
+        <v>310</v>
       </c>
       <c r="F43" t="s">
-        <v>376</v>
+        <v>311</v>
       </c>
       <c r="G43" t="s">
-        <v>377</v>
+        <v>312</v>
       </c>
       <c r="H43" t="s">
         <v>147</v>
       </c>
-      <c r="I43" t="s">
-        <v>378</v>
+      <c r="I43">
+        <v>21.81</v>
       </c>
       <c r="J43" t="s">
         <v>132</v>
@@ -6177,10 +6533,11 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H46" t="s">
-        <v>355</v>
-      </c>
-      <c r="I46" t="s">
-        <v>379</v>
+        <v>305</v>
+      </c>
+      <c r="I46">
+        <f>SUM(I3:I45)</f>
+        <v>114.78</v>
       </c>
     </row>
   </sheetData>
@@ -6193,7 +6550,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD11"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6253,33 +6610,33 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>381</v>
+        <v>314</v>
       </c>
       <c r="E3" t="s">
-        <v>382</v>
+        <v>315</v>
       </c>
       <c r="F3" t="s">
         <v>145</v>
       </c>
       <c r="G3" t="s">
-        <v>383</v>
+        <v>316</v>
       </c>
       <c r="H3" t="s">
         <v>147</v>
       </c>
       <c r="I3" t="s">
-        <v>384</v>
+        <v>317</v>
       </c>
       <c r="J3" t="s">
-        <v>380</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H5" t="s">
-        <v>355</v>
+        <v>305</v>
       </c>
       <c r="I5" t="s">
-        <v>384</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/pcb/RGBClock/BOM-Farnell-Digikey.xlsx
+++ b/pcb/RGBClock/BOM-Farnell-Digikey.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="10824" windowHeight="8016" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Proto" sheetId="1" r:id="rId1"/>
@@ -14,16 +14,18 @@
     <sheet name="iPrototype" sheetId="6" r:id="rId5"/>
     <sheet name="Digikey" sheetId="5" r:id="rId6"/>
     <sheet name="MB-Farnell-Basket" sheetId="7" r:id="rId7"/>
-    <sheet name="DB-Farnell-Basket" sheetId="8" r:id="rId8"/>
-    <sheet name="LD-Farnell-Basket" sheetId="9" r:id="rId9"/>
-    <sheet name="Basket" sheetId="10" r:id="rId10"/>
+    <sheet name="DAB+MB Farnell" sheetId="11" r:id="rId8"/>
+    <sheet name="DAB+ Test" sheetId="12" r:id="rId9"/>
+    <sheet name="DB-Farnell-Basket" sheetId="8" r:id="rId10"/>
+    <sheet name="LD-Farnell-Basket" sheetId="9" r:id="rId11"/>
+    <sheet name="Basket" sheetId="10" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="basket_1" localSheetId="6">'MB-Farnell-Basket'!$A$1:$J$56</definedName>
-    <definedName name="basketdb" localSheetId="7">'DB-Farnell-Basket'!$A$1:$J$51</definedName>
-    <definedName name="basketld" localSheetId="8">'LD-Farnell-Basket'!$A$1:$J$5</definedName>
+    <definedName name="basketdb" localSheetId="9">'DB-Farnell-Basket'!$A$1:$J$51</definedName>
+    <definedName name="basketld" localSheetId="10">'LD-Farnell-Basket'!$A$1:$J$5</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -81,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="368">
   <si>
     <t>Toch button</t>
   </si>
@@ -1044,13 +1046,154 @@
   </si>
   <si>
     <t>dd</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>C1,C6,C7</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>C3,C4</t>
+  </si>
+  <si>
+    <t>D6-D7</t>
+  </si>
+  <si>
+    <t>LM2675M-5.0</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>IC2</t>
+  </si>
+  <si>
+    <t>LT1763CS8-1.5</t>
+  </si>
+  <si>
+    <t>D2,D3</t>
+  </si>
+  <si>
+    <t>3.3K</t>
+  </si>
+  <si>
+    <t>R2,R3</t>
+  </si>
+  <si>
+    <t>MAX6369KA</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>33pF</t>
+  </si>
+  <si>
+    <t>U$3</t>
+  </si>
+  <si>
+    <t>ESD Prot Low Cap</t>
+  </si>
+  <si>
+    <t>C9,C10,C16,C17</t>
+  </si>
+  <si>
+    <t>18nh</t>
+  </si>
+  <si>
+    <t>U$1</t>
+  </si>
+  <si>
+    <t>120nH</t>
+  </si>
+  <si>
+    <t>U$4</t>
+  </si>
+  <si>
+    <t>22nH</t>
+  </si>
+  <si>
+    <t>U$5</t>
+  </si>
+  <si>
+    <t>8.2pF</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>DRV612PW</t>
+  </si>
+  <si>
+    <t>C13, C22,C27,C28,C23,C19,C20,C21</t>
+  </si>
+  <si>
+    <t>C11,C12,C24,C25,C26,C29</t>
+  </si>
+  <si>
+    <t>R8,R9,R10,R11</t>
+  </si>
+  <si>
+    <t>47k</t>
+  </si>
+  <si>
+    <t>R6,R7</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>1469923</t>
+  </si>
+  <si>
+    <t>4.7k</t>
+  </si>
+  <si>
+    <t>2930572</t>
+  </si>
+  <si>
+    <t>SI4684</t>
+  </si>
+  <si>
+    <t>U$6</t>
+  </si>
+  <si>
+    <t>2849437</t>
+  </si>
+  <si>
+    <t>U$2</t>
+  </si>
+  <si>
+    <t>19.2Mhz</t>
+  </si>
+  <si>
+    <t>X3,X4</t>
+  </si>
+  <si>
+    <t>2675146</t>
+  </si>
+  <si>
+    <t>D8,D9,D10,D11</t>
+  </si>
+  <si>
+    <t>1N4148 </t>
+  </si>
+  <si>
+    <t>2695042</t>
+  </si>
+  <si>
+    <t>1658877</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1096,6 +1239,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1118,7 +1267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1132,6 +1281,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1142,6 +1293,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1202,7 +1356,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1237,7 +1391,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1452,13 +1606,13 @@
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.44140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>4</v>
       </c>
@@ -1469,7 +1623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1480,7 +1634,7 @@
         <v>8.4499999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1497,7 +1651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1514,7 +1668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1531,7 +1685,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1551,7 +1705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1565,7 +1719,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1579,17 +1733,17 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1606,7 +1760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1617,7 +1771,7 @@
         <v>1657931</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1644,18 +1798,1146 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2317402</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3">
+        <v>0.99</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2309036</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I4">
+        <v>0.78</v>
+      </c>
+      <c r="J4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1759246</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I6">
+        <v>0.13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1286784</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I7">
+        <v>7.3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>1527537</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" t="s">
+        <v>147</v>
+      </c>
+      <c r="I9">
+        <v>0.41</v>
+      </c>
+      <c r="J9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>1527471</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" t="s">
+        <v>162</v>
+      </c>
+      <c r="H10" t="s">
+        <v>147</v>
+      </c>
+      <c r="I10">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>2309029</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G12" t="s">
+        <v>165</v>
+      </c>
+      <c r="H12" t="s">
+        <v>147</v>
+      </c>
+      <c r="I12">
+        <v>0.45</v>
+      </c>
+      <c r="J12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>1759223</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" t="s">
+        <v>167</v>
+      </c>
+      <c r="F13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" t="s">
+        <v>168</v>
+      </c>
+      <c r="H13" t="s">
+        <v>147</v>
+      </c>
+      <c r="I13">
+        <v>0.23</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>1759156</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" t="s">
+        <v>170</v>
+      </c>
+      <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" t="s">
+        <v>147</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>1135383</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15" t="s">
+        <v>174</v>
+      </c>
+      <c r="F15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" t="s">
+        <v>175</v>
+      </c>
+      <c r="H15" t="s">
+        <v>147</v>
+      </c>
+      <c r="I15">
+        <v>2.11</v>
+      </c>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>8906068</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H16" t="s">
+        <v>147</v>
+      </c>
+      <c r="I16">
+        <v>14.14</v>
+      </c>
+      <c r="J16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>2115321</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>179</v>
+      </c>
+      <c r="E18" t="s">
+        <v>180</v>
+      </c>
+      <c r="F18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H18" t="s">
+        <v>147</v>
+      </c>
+      <c r="I18">
+        <v>0.73</v>
+      </c>
+      <c r="J18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19">
+        <v>2329934</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>182</v>
+      </c>
+      <c r="E19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" t="s">
+        <v>184</v>
+      </c>
+      <c r="H19" t="s">
+        <v>147</v>
+      </c>
+      <c r="I19">
+        <v>0.32</v>
+      </c>
+      <c r="J19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <v>1854074</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>185</v>
+      </c>
+      <c r="E21" t="s">
+        <v>186</v>
+      </c>
+      <c r="F21" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" t="s">
+        <v>187</v>
+      </c>
+      <c r="H21" t="s">
+        <v>147</v>
+      </c>
+      <c r="I21">
+        <v>2.97</v>
+      </c>
+      <c r="J21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>2341911</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>188</v>
+      </c>
+      <c r="E22" t="s">
+        <v>189</v>
+      </c>
+      <c r="F22" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22" t="s">
+        <v>190</v>
+      </c>
+      <c r="H22" t="s">
+        <v>147</v>
+      </c>
+      <c r="I22">
+        <v>1.52</v>
+      </c>
+      <c r="J22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>1243244</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E24" t="s">
+        <v>192</v>
+      </c>
+      <c r="F24" t="s">
+        <v>145</v>
+      </c>
+      <c r="G24" t="s">
+        <v>193</v>
+      </c>
+      <c r="H24" t="s">
+        <v>147</v>
+      </c>
+      <c r="I24">
+        <v>5.36</v>
+      </c>
+      <c r="J24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>17</v>
+      </c>
+      <c r="B25">
+        <v>1332087</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" t="s">
+        <v>195</v>
+      </c>
+      <c r="F25" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" t="s">
+        <v>196</v>
+      </c>
+      <c r="H25" t="s">
+        <v>147</v>
+      </c>
+      <c r="I25">
+        <v>2.91</v>
+      </c>
+      <c r="J25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>18</v>
+      </c>
+      <c r="B27">
+        <v>1207307</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>197</v>
+      </c>
+      <c r="E27" t="s">
+        <v>198</v>
+      </c>
+      <c r="F27" t="s">
+        <v>145</v>
+      </c>
+      <c r="G27" t="s">
+        <v>199</v>
+      </c>
+      <c r="H27" t="s">
+        <v>147</v>
+      </c>
+      <c r="I27">
+        <v>8.09</v>
+      </c>
+      <c r="J27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>19</v>
+      </c>
+      <c r="B28">
+        <v>1843876</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E28" t="s">
+        <v>201</v>
+      </c>
+      <c r="F28" t="s">
+        <v>145</v>
+      </c>
+      <c r="G28" t="s">
+        <v>202</v>
+      </c>
+      <c r="H28" t="s">
+        <v>147</v>
+      </c>
+      <c r="I28">
+        <v>17.78</v>
+      </c>
+      <c r="J28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>1657931</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>203</v>
+      </c>
+      <c r="E29" t="s">
+        <v>204</v>
+      </c>
+      <c r="F29" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29">
+        <v>0.76</v>
+      </c>
+      <c r="H29" t="s">
+        <v>147</v>
+      </c>
+      <c r="I29">
+        <f>G29*C29</f>
+        <v>1.52</v>
+      </c>
+      <c r="J29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>21</v>
+      </c>
+      <c r="B30">
+        <v>1892899</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>205</v>
+      </c>
+      <c r="E30" t="s">
+        <v>206</v>
+      </c>
+      <c r="F30" t="s">
+        <v>145</v>
+      </c>
+      <c r="G30" t="s">
+        <v>207</v>
+      </c>
+      <c r="H30" t="s">
+        <v>147</v>
+      </c>
+      <c r="I30">
+        <v>0.66</v>
+      </c>
+      <c r="J30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>9101241</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>208</v>
+      </c>
+      <c r="E31" t="s">
+        <v>209</v>
+      </c>
+      <c r="F31" t="s">
+        <v>210</v>
+      </c>
+      <c r="G31" t="s">
+        <v>190</v>
+      </c>
+      <c r="H31" t="s">
+        <v>147</v>
+      </c>
+      <c r="I31">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="J31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>1636136</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>211</v>
+      </c>
+      <c r="E33" t="s">
+        <v>212</v>
+      </c>
+      <c r="F33" t="s">
+        <v>145</v>
+      </c>
+      <c r="G33" t="s">
+        <v>213</v>
+      </c>
+      <c r="H33" t="s">
+        <v>147</v>
+      </c>
+      <c r="I33">
+        <v>10.32</v>
+      </c>
+      <c r="J33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>24</v>
+      </c>
+      <c r="B34">
+        <v>1085264</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>214</v>
+      </c>
+      <c r="E34" t="s">
+        <v>215</v>
+      </c>
+      <c r="F34" t="s">
+        <v>145</v>
+      </c>
+      <c r="G34" t="s">
+        <v>216</v>
+      </c>
+      <c r="H34" t="s">
+        <v>147</v>
+      </c>
+      <c r="I34">
+        <v>0.61</v>
+      </c>
+      <c r="J34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>25</v>
+      </c>
+      <c r="B36">
+        <v>1085266</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>217</v>
+      </c>
+      <c r="E36" t="s">
+        <v>218</v>
+      </c>
+      <c r="F36" t="s">
+        <v>145</v>
+      </c>
+      <c r="G36" t="s">
+        <v>216</v>
+      </c>
+      <c r="H36" t="s">
+        <v>147</v>
+      </c>
+      <c r="I36">
+        <v>0.61</v>
+      </c>
+      <c r="J36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>26</v>
+      </c>
+      <c r="B37">
+        <v>1759252</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>219</v>
+      </c>
+      <c r="E37" t="s">
+        <v>220</v>
+      </c>
+      <c r="F37" t="s">
+        <v>145</v>
+      </c>
+      <c r="G37" t="s">
+        <v>221</v>
+      </c>
+      <c r="H37" t="s">
+        <v>147</v>
+      </c>
+      <c r="I37">
+        <v>0.17</v>
+      </c>
+      <c r="J37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>27</v>
+      </c>
+      <c r="B39">
+        <v>1563120</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>222</v>
+      </c>
+      <c r="E39" t="s">
+        <v>223</v>
+      </c>
+      <c r="F39" t="s">
+        <v>145</v>
+      </c>
+      <c r="G39" t="s">
+        <v>224</v>
+      </c>
+      <c r="H39" t="s">
+        <v>147</v>
+      </c>
+      <c r="I39">
+        <v>0.23</v>
+      </c>
+      <c r="J39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>28</v>
+      </c>
+      <c r="B40">
+        <v>1226888</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>225</v>
+      </c>
+      <c r="E40" t="s">
+        <v>226</v>
+      </c>
+      <c r="F40" t="s">
+        <v>145</v>
+      </c>
+      <c r="G40" t="s">
+        <v>227</v>
+      </c>
+      <c r="H40" t="s">
+        <v>147</v>
+      </c>
+      <c r="I40">
+        <v>4.41</v>
+      </c>
+      <c r="J40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>29</v>
+      </c>
+      <c r="B42">
+        <v>1103919</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>228</v>
+      </c>
+      <c r="E42" t="s">
+        <v>229</v>
+      </c>
+      <c r="F42" t="s">
+        <v>145</v>
+      </c>
+      <c r="G42" t="s">
+        <v>230</v>
+      </c>
+      <c r="H42" t="s">
+        <v>147</v>
+      </c>
+      <c r="I42">
+        <v>2.09</v>
+      </c>
+      <c r="J42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>30</v>
+      </c>
+      <c r="B43">
+        <v>5095487</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>309</v>
+      </c>
+      <c r="E43" t="s">
+        <v>310</v>
+      </c>
+      <c r="F43" t="s">
+        <v>311</v>
+      </c>
+      <c r="G43" t="s">
+        <v>312</v>
+      </c>
+      <c r="H43" t="s">
+        <v>147</v>
+      </c>
+      <c r="I43">
+        <v>21.81</v>
+      </c>
+      <c r="J43" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H46" t="s">
+        <v>305</v>
+      </c>
+      <c r="I46">
+        <f>SUM(I3:I45)</f>
+        <v>114.78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1892887</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" t="s">
+        <v>316</v>
+      </c>
+      <c r="H3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>305</v>
+      </c>
+      <c r="I5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>2317402</v>
       </c>
@@ -1666,7 +2948,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1563202</v>
       </c>
@@ -1677,7 +2959,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>9227946</v>
       </c>
@@ -1688,7 +2970,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2333744</v>
       </c>
@@ -1699,7 +2981,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1754000</v>
       </c>
@@ -1710,7 +2992,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1135383</v>
       </c>
@@ -1721,7 +3003,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1759156</v>
       </c>
@@ -1732,7 +3014,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1740680</v>
       </c>
@@ -1743,7 +3025,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1758991</v>
       </c>
@@ -1754,7 +3036,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1758951</v>
       </c>
@@ -1765,7 +3047,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2341911</v>
       </c>
@@ -1776,7 +3058,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1652573</v>
       </c>
@@ -1787,7 +3069,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1319749</v>
       </c>
@@ -1798,7 +3080,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1379714</v>
       </c>
@@ -1809,7 +3091,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2115321</v>
       </c>
@@ -1820,7 +3102,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2329964</v>
       </c>
@@ -1831,7 +3113,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2329934</v>
       </c>
@@ -1842,7 +3124,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1243244</v>
       </c>
@@ -1853,7 +3135,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1563074</v>
       </c>
@@ -1864,7 +3146,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1703315</v>
       </c>
@@ -1875,7 +3157,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1652645</v>
       </c>
@@ -1886,7 +3168,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2164820</v>
       </c>
@@ -1897,7 +3179,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1650715</v>
       </c>
@@ -1908,7 +3190,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1463389</v>
       </c>
@@ -1919,7 +3201,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1332087</v>
       </c>
@@ -1930,7 +3212,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1141477</v>
       </c>
@@ -1941,7 +3223,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2068190</v>
       </c>
@@ -1952,7 +3234,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1612436</v>
       </c>
@@ -1963,7 +3245,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1177883</v>
       </c>
@@ -1974,7 +3256,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>636370</v>
       </c>
@@ -1985,7 +3267,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1518419</v>
       </c>
@@ -1996,7 +3278,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1550980</v>
       </c>
@@ -2007,7 +3289,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1103922</v>
       </c>
@@ -2018,7 +3300,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2102054</v>
       </c>
@@ -2029,7 +3311,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2329534</v>
       </c>
@@ -2040,7 +3322,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2112412</v>
       </c>
@@ -2051,7 +3333,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2317402</v>
       </c>
@@ -2062,7 +3344,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2309036</v>
       </c>
@@ -2073,7 +3355,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1759246</v>
       </c>
@@ -2084,7 +3366,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1286784</v>
       </c>
@@ -2095,7 +3377,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1527537</v>
       </c>
@@ -2106,7 +3388,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1527471</v>
       </c>
@@ -2117,7 +3399,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2309029</v>
       </c>
@@ -2128,7 +3410,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1759223</v>
       </c>
@@ -2139,7 +3421,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1759156</v>
       </c>
@@ -2150,7 +3432,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1135383</v>
       </c>
@@ -2161,7 +3443,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>8906068</v>
       </c>
@@ -2172,7 +3454,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2115321</v>
       </c>
@@ -2183,7 +3465,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2329934</v>
       </c>
@@ -2194,7 +3476,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1854074</v>
       </c>
@@ -2205,7 +3487,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2341911</v>
       </c>
@@ -2216,7 +3498,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1243244</v>
       </c>
@@ -2227,7 +3509,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1332087</v>
       </c>
@@ -2238,7 +3520,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1207307</v>
       </c>
@@ -2249,7 +3531,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1843876</v>
       </c>
@@ -2260,7 +3542,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1657931</v>
       </c>
@@ -2271,7 +3553,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1892899</v>
       </c>
@@ -2282,7 +3564,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>9101241</v>
       </c>
@@ -2293,7 +3575,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1636136</v>
       </c>
@@ -2304,7 +3586,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1085264</v>
       </c>
@@ -2315,7 +3597,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1085266</v>
       </c>
@@ -2326,7 +3608,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1759252</v>
       </c>
@@ -2337,7 +3619,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1563120</v>
       </c>
@@ -2348,7 +3630,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1226888</v>
       </c>
@@ -2359,7 +3641,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1103919</v>
       </c>
@@ -2370,7 +3652,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>5095487</v>
       </c>
@@ -2381,7 +3663,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1892887</v>
       </c>
@@ -2401,19 +3683,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="5" customWidth="1"/>
     <col min="6" max="6" width="32" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
+    <col min="7" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2436,7 +3718,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2317402</v>
       </c>
@@ -2454,7 +3736,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1563202</v>
       </c>
@@ -3224,15 +4506,15 @@
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="37.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -3845,15 +5127,15 @@
       <selection activeCell="C2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="25.33203125" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="25.28515625" style="5"/>
+    <col min="1" max="1" width="10.88671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="25.33203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -3916,12 +5198,12 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>105</v>
       </c>
@@ -3938,7 +5220,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>56549884</v>
       </c>
@@ -3970,14 +5252,14 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="5"/>
+    <col min="1" max="1" width="26.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="5"/>
     <col min="3" max="3" width="43" style="5" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="5"/>
-    <col min="6" max="6" width="21.7109375" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="5" width="9.109375" style="5"/>
+    <col min="6" max="6" width="21.6640625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -4321,25 +5603,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B55" sqref="B3:J55"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.5703125" customWidth="1"/>
-    <col min="5" max="5" width="50.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5546875" customWidth="1"/>
+    <col min="5" max="5" width="50.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>133</v>
       </c>
@@ -4371,7 +5653,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4403,7 +5685,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4435,7 +5717,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4467,7 +5749,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4499,7 +5781,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4531,7 +5813,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4563,7 +5845,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4595,7 +5877,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4627,7 +5909,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4659,7 +5941,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>14</v>
       </c>
@@ -4691,7 +5973,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>15</v>
       </c>
@@ -4723,7 +6005,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>16</v>
       </c>
@@ -4755,7 +6037,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>17</v>
       </c>
@@ -4787,7 +6069,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>18</v>
       </c>
@@ -4819,7 +6101,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>19</v>
       </c>
@@ -4851,7 +6133,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>21</v>
       </c>
@@ -4883,7 +6165,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>22</v>
       </c>
@@ -4915,7 +6197,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>23</v>
       </c>
@@ -4947,7 +6229,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>24</v>
       </c>
@@ -4979,7 +6261,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>25</v>
       </c>
@@ -5011,7 +6293,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>26</v>
       </c>
@@ -5043,7 +6325,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>27</v>
       </c>
@@ -5075,7 +6357,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>28</v>
       </c>
@@ -5107,7 +6389,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>29</v>
       </c>
@@ -5139,7 +6421,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>31</v>
       </c>
@@ -5171,7 +6453,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>32</v>
       </c>
@@ -5203,7 +6485,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>34</v>
       </c>
@@ -5235,7 +6517,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>35</v>
       </c>
@@ -5267,7 +6549,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>36</v>
       </c>
@@ -5299,7 +6581,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>37</v>
       </c>
@@ -5331,7 +6613,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>38</v>
       </c>
@@ -5363,7 +6645,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>39</v>
       </c>
@@ -5395,7 +6677,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>40</v>
       </c>
@@ -5427,7 +6709,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>41</v>
       </c>
@@ -5459,7 +6741,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>42</v>
       </c>
@@ -5488,7 +6770,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>2112412</v>
       </c>
@@ -5502,7 +6784,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H56" t="s">
         <v>305</v>
       </c>
@@ -5518,1128 +6800,1090 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>133</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1469911</v>
+      </c>
+      <c r="C5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1469929</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>351</v>
+      </c>
+      <c r="D6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1563074</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1141477</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>355</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>2070445</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>321</v>
+      </c>
+      <c r="D12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>9227946</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>2070445</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>323</v>
+      </c>
+      <c r="D14" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>1754000</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>1759156</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>317603</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>335</v>
+      </c>
+      <c r="D17" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>1650715</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>271</v>
+      </c>
+      <c r="D18" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>2332712</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>345</v>
+      </c>
+      <c r="D19" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>1658877</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>346</v>
+      </c>
+      <c r="D20" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>1612436</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>283</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>2317402</v>
       </c>
-      <c r="C3">
+      <c r="B26">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C26" t="s">
         <v>143</v>
       </c>
-      <c r="E3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G3" t="s">
-        <v>146</v>
-      </c>
-      <c r="H3" t="s">
-        <v>147</v>
-      </c>
-      <c r="I3">
-        <v>0.99</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="D26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>2341911</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>2341911</v>
+      </c>
+      <c r="B28">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>2309036</v>
-      </c>
-      <c r="C4">
+      <c r="C28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>2115321</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>179</v>
+      </c>
+      <c r="D29" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>365</v>
+      </c>
+      <c r="D30" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>1865863</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>339</v>
+      </c>
+      <c r="D33" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>1748783</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>341</v>
+      </c>
+      <c r="D34" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>9527982</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>343</v>
+      </c>
+      <c r="D35" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>1636136</v>
+      </c>
+      <c r="B36">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F4" t="s">
-        <v>145</v>
-      </c>
-      <c r="G4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H4" t="s">
-        <v>147</v>
-      </c>
-      <c r="I4">
-        <v>0.78</v>
-      </c>
-      <c r="J4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="C36" t="s">
+        <v>211</v>
+      </c>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>1332087</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>194</v>
+      </c>
+      <c r="D39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>2519138</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>333</v>
+      </c>
+      <c r="D40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>9489746</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>326</v>
+      </c>
+      <c r="D41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>1379714</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>257</v>
+      </c>
+      <c r="D42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>1703315</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>263</v>
+      </c>
+      <c r="D43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>8906068</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>176</v>
+      </c>
+      <c r="D44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>1135383</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>173</v>
+      </c>
+      <c r="D45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>2102598</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>329</v>
+      </c>
+      <c r="D46" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>2164820</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>268</v>
+      </c>
+      <c r="D47" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>1882273</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>347</v>
+      </c>
+      <c r="D48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>357</v>
+      </c>
+      <c r="D49" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>2368172</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>337</v>
+      </c>
+      <c r="D51" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>2068190</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>280</v>
+      </c>
+      <c r="D54" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>1652573</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>251</v>
+      </c>
+      <c r="D56" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="10">
+        <v>1319749</v>
+      </c>
+      <c r="B57" s="5">
+        <v>1</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>361</v>
+      </c>
+      <c r="D58" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1243244</v>
+      </c>
+      <c r="B59">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>1759246</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E6" t="s">
-        <v>152</v>
-      </c>
-      <c r="F6" t="s">
-        <v>145</v>
-      </c>
-      <c r="G6" t="s">
-        <v>153</v>
-      </c>
-      <c r="H6" t="s">
-        <v>147</v>
-      </c>
-      <c r="I6">
-        <v>0.13</v>
-      </c>
-      <c r="J6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>1286784</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H7" t="s">
-        <v>147</v>
-      </c>
-      <c r="I7">
-        <v>7.3</v>
-      </c>
-      <c r="J7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>1527537</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E9" t="s">
-        <v>158</v>
-      </c>
-      <c r="F9" t="s">
-        <v>145</v>
-      </c>
-      <c r="G9" t="s">
-        <v>159</v>
-      </c>
-      <c r="H9" t="s">
-        <v>147</v>
-      </c>
-      <c r="I9">
-        <v>0.41</v>
-      </c>
-      <c r="J9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>1527471</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>160</v>
-      </c>
-      <c r="E10" t="s">
-        <v>161</v>
-      </c>
-      <c r="F10" t="s">
-        <v>145</v>
-      </c>
-      <c r="G10" t="s">
-        <v>162</v>
-      </c>
-      <c r="H10" t="s">
-        <v>147</v>
-      </c>
-      <c r="I10">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="J10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>2309029</v>
-      </c>
-      <c r="C12">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>163</v>
-      </c>
-      <c r="E12" t="s">
-        <v>164</v>
-      </c>
-      <c r="F12" t="s">
-        <v>145</v>
-      </c>
-      <c r="G12" t="s">
-        <v>165</v>
-      </c>
-      <c r="H12" t="s">
-        <v>147</v>
-      </c>
-      <c r="I12">
-        <v>0.45</v>
-      </c>
-      <c r="J12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>8</v>
-      </c>
-      <c r="B13">
-        <v>1759223</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E13" t="s">
-        <v>167</v>
-      </c>
-      <c r="F13" t="s">
-        <v>145</v>
-      </c>
-      <c r="G13" t="s">
-        <v>168</v>
-      </c>
-      <c r="H13" t="s">
-        <v>147</v>
-      </c>
-      <c r="I13">
-        <v>0.23</v>
-      </c>
-      <c r="J13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>9</v>
-      </c>
-      <c r="B14">
-        <v>1759156</v>
-      </c>
-      <c r="C14">
-        <v>30</v>
-      </c>
-      <c r="D14" t="s">
-        <v>169</v>
-      </c>
-      <c r="E14" t="s">
-        <v>170</v>
-      </c>
-      <c r="F14" t="s">
-        <v>145</v>
-      </c>
-      <c r="G14" t="s">
-        <v>171</v>
-      </c>
-      <c r="H14" t="s">
-        <v>147</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>10</v>
-      </c>
-      <c r="B15">
-        <v>1135383</v>
-      </c>
-      <c r="C15">
+      <c r="C59" t="s">
+        <v>191</v>
+      </c>
+      <c r="D59" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>636370</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>1103922</v>
+      </c>
+      <c r="B61">
         <v>2</v>
       </c>
-      <c r="D15" t="s">
-        <v>173</v>
-      </c>
-      <c r="E15" t="s">
-        <v>174</v>
-      </c>
-      <c r="F15" t="s">
-        <v>145</v>
-      </c>
-      <c r="G15" t="s">
-        <v>175</v>
-      </c>
-      <c r="H15" t="s">
-        <v>147</v>
-      </c>
-      <c r="I15">
-        <v>2.11</v>
-      </c>
-      <c r="J15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>11</v>
-      </c>
-      <c r="B16">
-        <v>8906068</v>
-      </c>
-      <c r="C16">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>176</v>
-      </c>
-      <c r="E16" t="s">
-        <v>177</v>
-      </c>
-      <c r="F16" t="s">
-        <v>145</v>
-      </c>
-      <c r="G16" t="s">
-        <v>178</v>
-      </c>
-      <c r="H16" t="s">
-        <v>147</v>
-      </c>
-      <c r="I16">
-        <v>14.14</v>
-      </c>
-      <c r="J16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>12</v>
-      </c>
-      <c r="B18">
-        <v>2115321</v>
-      </c>
-      <c r="C18">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>179</v>
-      </c>
-      <c r="E18" t="s">
-        <v>180</v>
-      </c>
-      <c r="F18" t="s">
-        <v>145</v>
-      </c>
-      <c r="G18" t="s">
-        <v>181</v>
-      </c>
-      <c r="H18" t="s">
-        <v>147</v>
-      </c>
-      <c r="I18">
-        <v>0.73</v>
-      </c>
-      <c r="J18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>13</v>
-      </c>
-      <c r="B19">
-        <v>2329934</v>
-      </c>
-      <c r="C19">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E19" t="s">
-        <v>183</v>
-      </c>
-      <c r="F19" t="s">
-        <v>145</v>
-      </c>
-      <c r="G19" t="s">
-        <v>184</v>
-      </c>
-      <c r="H19" t="s">
-        <v>147</v>
-      </c>
-      <c r="I19">
-        <v>0.32</v>
-      </c>
-      <c r="J19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>14</v>
-      </c>
-      <c r="B21">
-        <v>1854074</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>185</v>
-      </c>
-      <c r="E21" t="s">
-        <v>186</v>
-      </c>
-      <c r="F21" t="s">
-        <v>145</v>
-      </c>
-      <c r="G21" t="s">
-        <v>187</v>
-      </c>
-      <c r="H21" t="s">
-        <v>147</v>
-      </c>
-      <c r="I21">
-        <v>2.97</v>
-      </c>
-      <c r="J21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>15</v>
-      </c>
-      <c r="B22">
-        <v>2341911</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>188</v>
-      </c>
-      <c r="E22" t="s">
-        <v>189</v>
-      </c>
-      <c r="F22" t="s">
-        <v>145</v>
-      </c>
-      <c r="G22" t="s">
-        <v>190</v>
-      </c>
-      <c r="H22" t="s">
-        <v>147</v>
-      </c>
-      <c r="I22">
-        <v>1.52</v>
-      </c>
-      <c r="J22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>16</v>
-      </c>
-      <c r="B24">
-        <v>1243244</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>191</v>
-      </c>
-      <c r="E24" t="s">
-        <v>192</v>
-      </c>
-      <c r="F24" t="s">
-        <v>145</v>
-      </c>
-      <c r="G24" t="s">
-        <v>193</v>
-      </c>
-      <c r="H24" t="s">
-        <v>147</v>
-      </c>
-      <c r="I24">
-        <v>5.36</v>
-      </c>
-      <c r="J24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>17</v>
-      </c>
-      <c r="B25">
-        <v>1332087</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25" t="s">
-        <v>194</v>
-      </c>
-      <c r="E25" t="s">
-        <v>195</v>
-      </c>
-      <c r="F25" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" t="s">
-        <v>196</v>
-      </c>
-      <c r="H25" t="s">
-        <v>147</v>
-      </c>
-      <c r="I25">
-        <v>2.91</v>
-      </c>
-      <c r="J25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>18</v>
-      </c>
-      <c r="B27">
-        <v>1207307</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27" t="s">
-        <v>197</v>
-      </c>
-      <c r="E27" t="s">
-        <v>198</v>
-      </c>
-      <c r="F27" t="s">
-        <v>145</v>
-      </c>
-      <c r="G27" t="s">
-        <v>199</v>
-      </c>
-      <c r="H27" t="s">
-        <v>147</v>
-      </c>
-      <c r="I27">
-        <v>8.09</v>
-      </c>
-      <c r="J27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>19</v>
-      </c>
-      <c r="B28">
-        <v>1843876</v>
-      </c>
-      <c r="C28">
-        <v>6</v>
-      </c>
-      <c r="D28" t="s">
-        <v>200</v>
-      </c>
-      <c r="E28" t="s">
-        <v>201</v>
-      </c>
-      <c r="F28" t="s">
-        <v>145</v>
-      </c>
-      <c r="G28" t="s">
-        <v>202</v>
-      </c>
-      <c r="H28" t="s">
-        <v>147</v>
-      </c>
-      <c r="I28">
-        <v>17.78</v>
-      </c>
-      <c r="J28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>20</v>
-      </c>
-      <c r="B29">
-        <v>1657931</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29" t="s">
-        <v>203</v>
-      </c>
-      <c r="E29" t="s">
-        <v>204</v>
-      </c>
-      <c r="F29" t="s">
-        <v>145</v>
-      </c>
-      <c r="G29">
-        <v>0.76</v>
-      </c>
-      <c r="H29" t="s">
-        <v>147</v>
-      </c>
-      <c r="I29">
-        <f>G29*C29</f>
-        <v>1.52</v>
-      </c>
-      <c r="J29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>21</v>
-      </c>
-      <c r="B30">
-        <v>1892899</v>
-      </c>
-      <c r="C30">
-        <v>10</v>
-      </c>
-      <c r="D30" t="s">
-        <v>205</v>
-      </c>
-      <c r="E30" t="s">
-        <v>206</v>
-      </c>
-      <c r="F30" t="s">
-        <v>145</v>
-      </c>
-      <c r="G30" t="s">
-        <v>207</v>
-      </c>
-      <c r="H30" t="s">
-        <v>147</v>
-      </c>
-      <c r="I30">
-        <v>0.66</v>
-      </c>
-      <c r="J30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>22</v>
-      </c>
-      <c r="B31">
-        <v>9101241</v>
-      </c>
-      <c r="C31">
-        <v>6</v>
-      </c>
-      <c r="D31" t="s">
-        <v>208</v>
-      </c>
-      <c r="E31" t="s">
-        <v>209</v>
-      </c>
-      <c r="F31" t="s">
-        <v>210</v>
-      </c>
-      <c r="G31" t="s">
-        <v>190</v>
-      </c>
-      <c r="H31" t="s">
-        <v>147</v>
-      </c>
-      <c r="I31">
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="J31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>23</v>
-      </c>
-      <c r="B33">
-        <v>1636136</v>
-      </c>
-      <c r="C33">
-        <v>6</v>
-      </c>
-      <c r="D33" t="s">
-        <v>211</v>
-      </c>
-      <c r="E33" t="s">
-        <v>212</v>
-      </c>
-      <c r="F33" t="s">
-        <v>145</v>
-      </c>
-      <c r="G33" t="s">
-        <v>213</v>
-      </c>
-      <c r="H33" t="s">
-        <v>147</v>
-      </c>
-      <c r="I33">
-        <v>10.32</v>
-      </c>
-      <c r="J33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>24</v>
-      </c>
-      <c r="B34">
-        <v>1085264</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34" t="s">
-        <v>214</v>
-      </c>
-      <c r="E34" t="s">
-        <v>215</v>
-      </c>
-      <c r="F34" t="s">
-        <v>145</v>
-      </c>
-      <c r="G34" t="s">
-        <v>216</v>
-      </c>
-      <c r="H34" t="s">
-        <v>147</v>
-      </c>
-      <c r="I34">
-        <v>0.61</v>
-      </c>
-      <c r="J34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>25</v>
-      </c>
-      <c r="B36">
-        <v>1085266</v>
-      </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36" t="s">
-        <v>217</v>
-      </c>
-      <c r="E36" t="s">
-        <v>218</v>
-      </c>
-      <c r="F36" t="s">
-        <v>145</v>
-      </c>
-      <c r="G36" t="s">
-        <v>216</v>
-      </c>
-      <c r="H36" t="s">
-        <v>147</v>
-      </c>
-      <c r="I36">
-        <v>0.61</v>
-      </c>
-      <c r="J36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>26</v>
-      </c>
-      <c r="B37">
-        <v>1759252</v>
-      </c>
-      <c r="C37">
-        <v>10</v>
-      </c>
-      <c r="D37" t="s">
-        <v>219</v>
-      </c>
-      <c r="E37" t="s">
-        <v>220</v>
-      </c>
-      <c r="F37" t="s">
-        <v>145</v>
-      </c>
-      <c r="G37" t="s">
-        <v>221</v>
-      </c>
-      <c r="H37" t="s">
-        <v>147</v>
-      </c>
-      <c r="I37">
-        <v>0.17</v>
-      </c>
-      <c r="J37" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>27</v>
-      </c>
-      <c r="B39">
-        <v>1563120</v>
-      </c>
-      <c r="C39">
-        <v>5</v>
-      </c>
-      <c r="D39" t="s">
-        <v>222</v>
-      </c>
-      <c r="E39" t="s">
-        <v>223</v>
-      </c>
-      <c r="F39" t="s">
-        <v>145</v>
-      </c>
-      <c r="G39" t="s">
-        <v>224</v>
-      </c>
-      <c r="H39" t="s">
-        <v>147</v>
-      </c>
-      <c r="I39">
-        <v>0.23</v>
-      </c>
-      <c r="J39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>28</v>
-      </c>
-      <c r="B40">
-        <v>1226888</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40" t="s">
-        <v>225</v>
-      </c>
-      <c r="E40" t="s">
-        <v>226</v>
-      </c>
-      <c r="F40" t="s">
-        <v>145</v>
-      </c>
-      <c r="G40" t="s">
-        <v>227</v>
-      </c>
-      <c r="H40" t="s">
-        <v>147</v>
-      </c>
-      <c r="I40">
-        <v>4.41</v>
-      </c>
-      <c r="J40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>29</v>
-      </c>
-      <c r="B42">
-        <v>1103919</v>
-      </c>
-      <c r="C42">
-        <v>2</v>
-      </c>
-      <c r="D42" t="s">
-        <v>228</v>
-      </c>
-      <c r="E42" t="s">
-        <v>229</v>
-      </c>
-      <c r="F42" t="s">
-        <v>145</v>
-      </c>
-      <c r="G42" t="s">
-        <v>230</v>
-      </c>
-      <c r="H42" t="s">
-        <v>147</v>
-      </c>
-      <c r="I42">
-        <v>2.09</v>
-      </c>
-      <c r="J42" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>30</v>
-      </c>
-      <c r="B43">
-        <v>5095487</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="D43" t="s">
-        <v>309</v>
-      </c>
-      <c r="E43" t="s">
-        <v>310</v>
-      </c>
-      <c r="F43" t="s">
-        <v>311</v>
-      </c>
-      <c r="G43" t="s">
-        <v>312</v>
-      </c>
-      <c r="H43" t="s">
-        <v>147</v>
-      </c>
-      <c r="I43">
-        <v>21.81</v>
-      </c>
-      <c r="J43" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H46" t="s">
-        <v>305</v>
-      </c>
-      <c r="I46">
-        <f>SUM(I3:I45)</f>
-        <v>114.78</v>
+      <c r="C61" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A14" r:id="rId1" tooltip="2070445" display="https://be.farnell.com/kemet/c0805c104k5racauto/cap-0-1-f-50v-10-x7r-0805/dp/2070445"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:XFD62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>133</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1892887</v>
-      </c>
-      <c r="C3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1141477</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>355</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>2070445</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>321</v>
+      </c>
+      <c r="D12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>9227946</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>2070445</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>323</v>
+      </c>
+      <c r="D14" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>1754000</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>1759156</v>
+      </c>
+      <c r="B16">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E3" t="s">
-        <v>315</v>
-      </c>
-      <c r="F3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G3" t="s">
-        <v>316</v>
-      </c>
-      <c r="H3" t="s">
-        <v>147</v>
-      </c>
-      <c r="I3" t="s">
-        <v>317</v>
-      </c>
-      <c r="J3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H5" t="s">
-        <v>305</v>
-      </c>
-      <c r="I5" t="s">
-        <v>317</v>
+      <c r="C16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>317603</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>335</v>
+      </c>
+      <c r="D17" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>1650715</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>271</v>
+      </c>
+      <c r="D18" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>2332712</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>345</v>
+      </c>
+      <c r="D19" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>346</v>
+      </c>
+      <c r="D20" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>1612436</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>283</v>
+      </c>
+      <c r="D25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>2317402</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>1865863</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>339</v>
+      </c>
+      <c r="D29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>1748783</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>341</v>
+      </c>
+      <c r="D30" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>9527982</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>343</v>
+      </c>
+      <c r="D31" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>1636136</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>211</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>9489746</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>326</v>
+      </c>
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>1703315</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>263</v>
+      </c>
+      <c r="D39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>1135383</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>173</v>
+      </c>
+      <c r="D41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>2102598</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>329</v>
+      </c>
+      <c r="D42" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>1882273</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>347</v>
+      </c>
+      <c r="D44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>357</v>
+      </c>
+      <c r="D45" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>2368172</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>337</v>
+      </c>
+      <c r="D47" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="10"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>361</v>
+      </c>
+      <c r="D52" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1243244</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>191</v>
+      </c>
+      <c r="D53" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>636370</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>1103922</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A14" r:id="rId1" tooltip="2070445" display="https://be.farnell.com/kemet/c0805c104k5racauto/cap-0-1-f-50v-10-x7r-0805/dp/2070445"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>